--- a/LostAndFound/LostAndFound/Resources/LostAndFoundDatabase.xlsx
+++ b/LostAndFound/LostAndFound/Resources/LostAndFoundDatabase.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LostReports" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Disposed" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="965">
   <si>
     <t>Ashley Hawks</t>
   </si>
@@ -2007,6 +2009,918 @@
   </si>
   <si>
     <t>Saad Rowidou (couldn't read it)</t>
+  </si>
+  <si>
+    <t>backpack</t>
+  </si>
+  <si>
+    <t>suu bag with white sticker</t>
+  </si>
+  <si>
+    <t>kyler</t>
+  </si>
+  <si>
+    <t>purple mini backpack</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>tan, womens products inside</t>
+  </si>
+  <si>
+    <t>black ogio</t>
+  </si>
+  <si>
+    <t>Mohammed alshammari</t>
+  </si>
+  <si>
+    <t>china, blue and grey</t>
+  </si>
+  <si>
+    <t>black, (Swiss?) backpack</t>
+  </si>
+  <si>
+    <t>Robert Torgerson</t>
+  </si>
+  <si>
+    <t>435-869-3520</t>
+  </si>
+  <si>
+    <t>purse</t>
+  </si>
+  <si>
+    <t>blue with chanel wallet, passport, debit cards, goldish chain</t>
+  </si>
+  <si>
+    <t>Xunjian Liu</t>
+  </si>
+  <si>
+    <t>glasses</t>
+  </si>
+  <si>
+    <t>gold frame, reading glasses</t>
+  </si>
+  <si>
+    <t>sunglasses</t>
+  </si>
+  <si>
+    <t>tortoise shell, dna brand</t>
+  </si>
+  <si>
+    <t>liblab</t>
+  </si>
+  <si>
+    <t>reading glasses. White frame</t>
+  </si>
+  <si>
+    <t>lib</t>
+  </si>
+  <si>
+    <t>brown oakley</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>brown leather, blue face, Breda</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>gold, 5 jeweles</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>boyscout pin</t>
+  </si>
+  <si>
+    <t>earring</t>
+  </si>
+  <si>
+    <t>pearl stud earring</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>space, quotes</t>
+  </si>
+  <si>
+    <t>papers</t>
+  </si>
+  <si>
+    <t>marines folder and music papers</t>
+  </si>
+  <si>
+    <t>book of mormon in arab language</t>
+  </si>
+  <si>
+    <t>textbook</t>
+  </si>
+  <si>
+    <t>business law today and study guide</t>
+  </si>
+  <si>
+    <t>honors room</t>
+  </si>
+  <si>
+    <t>notebooks</t>
+  </si>
+  <si>
+    <t>plastic sack with notebooks</t>
+  </si>
+  <si>
+    <t>hyeeun lee</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>meals document</t>
+  </si>
+  <si>
+    <t>notebook</t>
+  </si>
+  <si>
+    <t>black, top flight notebook</t>
+  </si>
+  <si>
+    <t>declaration for fed employment</t>
+  </si>
+  <si>
+    <t>Jake schular</t>
+  </si>
+  <si>
+    <t>german lyric diction workbook</t>
+  </si>
+  <si>
+    <t>payee information form</t>
+  </si>
+  <si>
+    <t>jared weaver</t>
+  </si>
+  <si>
+    <t>book of mormon, small</t>
+  </si>
+  <si>
+    <t>womens bathroom</t>
+  </si>
+  <si>
+    <t>folder</t>
+  </si>
+  <si>
+    <t>green floder with NFS papers</t>
+  </si>
+  <si>
+    <t>backpack literature, suu bookstore</t>
+  </si>
+  <si>
+    <t>comp lab</t>
+  </si>
+  <si>
+    <t>prints of documents</t>
+  </si>
+  <si>
+    <t>visa passport and transcipt</t>
+  </si>
+  <si>
+    <t>bajunayd adam abdulah</t>
+  </si>
+  <si>
+    <t>wallet</t>
+  </si>
+  <si>
+    <t>black wallet, has IDs inside</t>
+  </si>
+  <si>
+    <t>Hussain Alzahrani</t>
+  </si>
+  <si>
+    <t>jacket</t>
+  </si>
+  <si>
+    <t>faded glory, plain black, fur on the inside</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>black with white and blue print</t>
+  </si>
+  <si>
+    <t>shirt</t>
+  </si>
+  <si>
+    <t>black. Late night</t>
+  </si>
+  <si>
+    <t>blue, institute shirt</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>glove</t>
+  </si>
+  <si>
+    <t>black and rubber wellslamont</t>
+  </si>
+  <si>
+    <t>black, weatherproof</t>
+  </si>
+  <si>
+    <t>scarf</t>
+  </si>
+  <si>
+    <t>fringed black cashmere</t>
+  </si>
+  <si>
+    <t>hat</t>
+  </si>
+  <si>
+    <t>black r on it</t>
+  </si>
+  <si>
+    <t>coat</t>
+  </si>
+  <si>
+    <t>grey womans jacket</t>
+  </si>
+  <si>
+    <t>shoes white toms size 7</t>
+  </si>
+  <si>
+    <t>black shoes size 8.5</t>
+  </si>
+  <si>
+    <t>shoes black flats Cloe Haan</t>
+  </si>
+  <si>
+    <t>shoes tan flats</t>
+  </si>
+  <si>
+    <t>jacket black</t>
+  </si>
+  <si>
+    <t>hair bow</t>
+  </si>
+  <si>
+    <t>black hair bow</t>
+  </si>
+  <si>
+    <t>brown snow glove</t>
+  </si>
+  <si>
+    <t>black burton glove</t>
+  </si>
+  <si>
+    <t>boot</t>
+  </si>
+  <si>
+    <t>black survivor brand boot</t>
+  </si>
+  <si>
+    <t>keys</t>
+  </si>
+  <si>
+    <t>red lanyard with blue and purple key</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>gold key with paper tag "red cavalier"</t>
+  </si>
+  <si>
+    <t>national guard lanyard, snow college key chain. Honda car key</t>
+  </si>
+  <si>
+    <t>car key</t>
+  </si>
+  <si>
+    <t>"hyko" car key, black plastic top</t>
+  </si>
+  <si>
+    <t>keys and watch. Lifeguard lanyard fossil watch</t>
+  </si>
+  <si>
+    <t>Big silver key</t>
+  </si>
+  <si>
+    <t>keys on suu lanyard</t>
+  </si>
+  <si>
+    <t>Coal Creek Trail</t>
+  </si>
+  <si>
+    <t>car key remote, black</t>
+  </si>
+  <si>
+    <t>outside the SSC</t>
+  </si>
+  <si>
+    <t>Pilot Myrewards RV card</t>
+  </si>
+  <si>
+    <t>small rewards card, #750018573386</t>
+  </si>
+  <si>
+    <t>Debit card</t>
+  </si>
+  <si>
+    <t>wells fargo debit card "Stephanie A Gonzalez"</t>
+  </si>
+  <si>
+    <t>brian head id</t>
+  </si>
+  <si>
+    <t>brain head id josh dutson</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>Huawei smartphone in pink case</t>
+  </si>
+  <si>
+    <t>800 W Univ Blvd intersection</t>
+  </si>
+  <si>
+    <t>Ash</t>
+  </si>
+  <si>
+    <t>earphones</t>
+  </si>
+  <si>
+    <t>white, samsung</t>
+  </si>
+  <si>
+    <t>flash drive</t>
+  </si>
+  <si>
+    <t>silver, super talent brand, 4gb</t>
+  </si>
+  <si>
+    <t>Ashley ostler</t>
+  </si>
+  <si>
+    <t>electronic device</t>
+  </si>
+  <si>
+    <t>mini logitech brand</t>
+  </si>
+  <si>
+    <t>8gb pny blue cube</t>
+  </si>
+  <si>
+    <t>lib lab</t>
+  </si>
+  <si>
+    <t>blue and white lexar 8 gb</t>
+  </si>
+  <si>
+    <t>erin white</t>
+  </si>
+  <si>
+    <t>black and red, sandixk cruzer glide 16gb</t>
+  </si>
+  <si>
+    <t>pny black 16 gb</t>
+  </si>
+  <si>
+    <t>katie gardner</t>
+  </si>
+  <si>
+    <t>flashdrive</t>
+  </si>
+  <si>
+    <t>sandisk cruzer 8gb black and red</t>
+  </si>
+  <si>
+    <t>michael anderson</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>dvd disk. 16x hp in white</t>
+  </si>
+  <si>
+    <t>camera card</t>
+  </si>
+  <si>
+    <t>black toshiba.. Small</t>
+  </si>
+  <si>
+    <t>ibook</t>
+  </si>
+  <si>
+    <t>white chinese electronic book, dictionary</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>samsung, verizon. Black smartphone</t>
+  </si>
+  <si>
+    <t>phon</t>
+  </si>
+  <si>
+    <t>lg touch screen</t>
+  </si>
+  <si>
+    <t>charger</t>
+  </si>
+  <si>
+    <t>belkin usb charger</t>
+  </si>
+  <si>
+    <t>2/29/2013</t>
+  </si>
+  <si>
+    <t>headphones</t>
+  </si>
+  <si>
+    <t>logitech brand headphones</t>
+  </si>
+  <si>
+    <t>earbuds</t>
+  </si>
+  <si>
+    <t>Lib lab</t>
+  </si>
+  <si>
+    <t>silver, ,no case, broken, computer wouldn't read it</t>
+  </si>
+  <si>
+    <t>usb</t>
+  </si>
+  <si>
+    <t>silver, looks like a key</t>
+  </si>
+  <si>
+    <t>blue and silver flipdrive with name label</t>
+  </si>
+  <si>
+    <t>Malakai Soloui</t>
+  </si>
+  <si>
+    <t>bluetooth</t>
+  </si>
+  <si>
+    <t>headset</t>
+  </si>
+  <si>
+    <t>black sandisk cruzer 4 gb</t>
+  </si>
+  <si>
+    <t>caitlyn wilbur</t>
+  </si>
+  <si>
+    <t>flip phone</t>
+  </si>
+  <si>
+    <t>black LG flip phone. Tracphone?</t>
+  </si>
+  <si>
+    <t>skull candy</t>
+  </si>
+  <si>
+    <t>red skull candy earphones</t>
+  </si>
+  <si>
+    <t>blue, ahec</t>
+  </si>
+  <si>
+    <t>ground of SSC</t>
+  </si>
+  <si>
+    <t>black, soul</t>
+  </si>
+  <si>
+    <t>white, apple adapter</t>
+  </si>
+  <si>
+    <t>phone charger adapter, black lg</t>
+  </si>
+  <si>
+    <t>black sony</t>
+  </si>
+  <si>
+    <t>white and silver, 16gb lexar</t>
+  </si>
+  <si>
+    <t>marshall young</t>
+  </si>
+  <si>
+    <t>black, hp, 2gb</t>
+  </si>
+  <si>
+    <t>silver, patriot memory on front, 4gb</t>
+  </si>
+  <si>
+    <t>kaitlyn chase</t>
+  </si>
+  <si>
+    <t>black. Pny 16gb</t>
+  </si>
+  <si>
+    <t>jaycee gardner</t>
+  </si>
+  <si>
+    <t>sandisk 4 gb</t>
+  </si>
+  <si>
+    <t>aaron kuttler</t>
+  </si>
+  <si>
+    <t>travel adapter</t>
+  </si>
+  <si>
+    <t>black, LG</t>
+  </si>
+  <si>
+    <t>4gb pink</t>
+  </si>
+  <si>
+    <t>kaitlyne krabbe</t>
+  </si>
+  <si>
+    <t>laptop charger</t>
+  </si>
+  <si>
+    <t>black, dell</t>
+  </si>
+  <si>
+    <t>Camera card, black, thin, TOSHIBA, pooplo 7</t>
+  </si>
+  <si>
+    <t>black charger</t>
+  </si>
+  <si>
+    <t>water bottle</t>
+  </si>
+  <si>
+    <t>pink subzero bottle</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>blonde boy, 2014-2015</t>
+  </si>
+  <si>
+    <t>ky</t>
+  </si>
+  <si>
+    <t>green clear, sundance film festival</t>
+  </si>
+  <si>
+    <t>sleeping bag</t>
+  </si>
+  <si>
+    <t>ozark trail sleeping bag blue</t>
+  </si>
+  <si>
+    <t>green blender bottle</t>
+  </si>
+  <si>
+    <t>rocky mtn university of health</t>
+  </si>
+  <si>
+    <t>dumbell</t>
+  </si>
+  <si>
+    <t>pink dumbell</t>
+  </si>
+  <si>
+    <t>purple camelbak</t>
+  </si>
+  <si>
+    <t>soda bottle</t>
+  </si>
+  <si>
+    <t>large, black, red, coca cola logo</t>
+  </si>
+  <si>
+    <t>waterbottle</t>
+  </si>
+  <si>
+    <t>red, black top, "Hinton Burdick CPAs &amp; Advisors"</t>
+  </si>
+  <si>
+    <t>blender bottle</t>
+  </si>
+  <si>
+    <t>Blue Blender Bottle</t>
+  </si>
+  <si>
+    <t>pictures</t>
+  </si>
+  <si>
+    <t>walgreens pics</t>
+  </si>
+  <si>
+    <t>lib-kim jun</t>
+  </si>
+  <si>
+    <t>thermo</t>
+  </si>
+  <si>
+    <t>black and silver, clark construction</t>
+  </si>
+  <si>
+    <t>black cyclone cup</t>
+  </si>
+  <si>
+    <t>music for analysis</t>
+  </si>
+  <si>
+    <t>Transcript</t>
+  </si>
+  <si>
+    <t>suu official transcript</t>
+  </si>
+  <si>
+    <t>muteb sager r</t>
+  </si>
+  <si>
+    <t>poster board</t>
+  </si>
+  <si>
+    <t>white science poster board</t>
+  </si>
+  <si>
+    <t>rm 209</t>
+  </si>
+  <si>
+    <t>makeup case</t>
+  </si>
+  <si>
+    <t>white with black circles</t>
+  </si>
+  <si>
+    <t>leather</t>
+  </si>
+  <si>
+    <t>Mohammed Alotaibi</t>
+  </si>
+  <si>
+    <t>notebook with papers, nfs 1020</t>
+  </si>
+  <si>
+    <t>blake hogge</t>
+  </si>
+  <si>
+    <t>Recycled</t>
+  </si>
+  <si>
+    <t>papes</t>
+  </si>
+  <si>
+    <t>suu transcript</t>
+  </si>
+  <si>
+    <t>Marc Plumb</t>
+  </si>
+  <si>
+    <t>neuromancer (?)</t>
+  </si>
+  <si>
+    <t>car key remote</t>
+  </si>
+  <si>
+    <t>snow college lanyard and 1 key</t>
+  </si>
+  <si>
+    <t>Amas Lagmour</t>
+  </si>
+  <si>
+    <t>drew torgerson</t>
+  </si>
+  <si>
+    <t>PE building</t>
+  </si>
+  <si>
+    <t>Michael kelly McBrearty</t>
+  </si>
+  <si>
+    <t>nike lanyard, nissan key and faub, "hold to the rod" keychain, M&amp;M house key, silver key</t>
+  </si>
+  <si>
+    <t>Alyssa Gomez</t>
+  </si>
+  <si>
+    <t>in passenger side door of gray hundai elantra parked at centrum</t>
+  </si>
+  <si>
+    <t>Errea Adams</t>
+  </si>
+  <si>
+    <t>gm car key, 16 gb flash drive</t>
+  </si>
+  <si>
+    <t>keychain with 3 keys and fruit decorations</t>
+  </si>
+  <si>
+    <t>Katie Jensen</t>
+  </si>
+  <si>
+    <t>black key TR47-PH</t>
+  </si>
+  <si>
+    <t>Angie England</t>
+  </si>
+  <si>
+    <t>wireless mouse</t>
+  </si>
+  <si>
+    <t>black, logitech</t>
+  </si>
+  <si>
+    <t>Colson Healy</t>
+  </si>
+  <si>
+    <t>Rachel Roberts</t>
+  </si>
+  <si>
+    <t>phone charger</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>dell computer mouse, black</t>
+  </si>
+  <si>
+    <t>usb charger</t>
+  </si>
+  <si>
+    <t>black, android charger</t>
+  </si>
+  <si>
+    <t>iphone</t>
+  </si>
+  <si>
+    <t>iphone 4 with lion case</t>
+  </si>
+  <si>
+    <t>Kirsten Manley</t>
+  </si>
+  <si>
+    <t>801-231-0113</t>
+  </si>
+  <si>
+    <t>ipod charger</t>
+  </si>
+  <si>
+    <t>old generations, white plug with black cord</t>
+  </si>
+  <si>
+    <t>laptop/tablet</t>
+  </si>
+  <si>
+    <t>lenova laptop that turns into a tablet</t>
+  </si>
+  <si>
+    <t>Craig Sperry</t>
+  </si>
+  <si>
+    <t>iclicker</t>
+  </si>
+  <si>
+    <t>iclicker 2</t>
+  </si>
+  <si>
+    <t>Garrett Honey</t>
+  </si>
+  <si>
+    <t>435-899-1466</t>
+  </si>
+  <si>
+    <t>black sandisk cruzer glide 4gb</t>
+  </si>
+  <si>
+    <t>Alora Bonner</t>
+  </si>
+  <si>
+    <t>white apple cord, odler version</t>
+  </si>
+  <si>
+    <t>white and black cow, has flower "in" its mouth</t>
+  </si>
+  <si>
+    <t>Megan Chamberlain</t>
+  </si>
+  <si>
+    <t>925-640-8986</t>
+  </si>
+  <si>
+    <t>white with "amazon" on one side</t>
+  </si>
+  <si>
+    <t>Library lab</t>
+  </si>
+  <si>
+    <t>nike running band</t>
+  </si>
+  <si>
+    <t>black Nike running band</t>
+  </si>
+  <si>
+    <t>blue and black</t>
+  </si>
+  <si>
+    <t>black, red</t>
+  </si>
+  <si>
+    <t>nahhol aljoralloh</t>
+  </si>
+  <si>
+    <t>apple charger</t>
+  </si>
+  <si>
+    <t>pink cord, sparkly white adapter</t>
+  </si>
+  <si>
+    <t>orange, sandisk, cruzer switch, 8gb</t>
+  </si>
+  <si>
+    <t>marcus pane</t>
+  </si>
+  <si>
+    <t>red and black sandisk</t>
+  </si>
+  <si>
+    <t>trevor poter</t>
+  </si>
+  <si>
+    <t>apple cord</t>
+  </si>
+  <si>
+    <t>what apple cord, older version</t>
+  </si>
+  <si>
+    <t>ipad mini</t>
+  </si>
+  <si>
+    <t>Sidnee Vowles</t>
+  </si>
+  <si>
+    <t>us army strong, clear</t>
+  </si>
+  <si>
+    <t>mouse pad</t>
+  </si>
+  <si>
+    <t>denim blue, samsung white letters</t>
+  </si>
+  <si>
+    <t>black, MAC</t>
+  </si>
+  <si>
+    <t>pink, eddie bauer</t>
+  </si>
+  <si>
+    <t>black, camelbak</t>
+  </si>
+  <si>
+    <t>orange, metal, UHP logo</t>
+  </si>
+  <si>
+    <t>documents</t>
+  </si>
+  <si>
+    <t>meals from jan 20 to jan 21</t>
+  </si>
+  <si>
+    <t>silver army strong</t>
+  </si>
+  <si>
+    <t>black and green, white sticker</t>
+  </si>
+  <si>
+    <t>livingroom</t>
+  </si>
+  <si>
+    <t>watter bottle</t>
+  </si>
+  <si>
+    <t>green mountain star mug</t>
+  </si>
+  <si>
+    <t>Shayla Rowley</t>
+  </si>
+  <si>
+    <t>black, cyclone cup</t>
   </si>
 </sst>
 </file>
@@ -2016,7 +2930,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2031,8 +2945,26 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12.1"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12.1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2045,8 +2977,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2102,6 +3040,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2110,7 +3108,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2147,6 +3145,47 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2431,7 +3470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
@@ -6169,4 +7208,4794 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId141"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M119"/>
+  <sheetViews>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection sqref="A1:M119"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27">
+        <v>42041</v>
+      </c>
+      <c r="B1" s="27">
+        <v>42071</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>661</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>662</v>
+      </c>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J1" s="30"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="32"/>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27">
+        <v>42041</v>
+      </c>
+      <c r="B2" s="27">
+        <v>42071</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>661</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>664</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J2" s="30"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="32"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27">
+        <v>42041</v>
+      </c>
+      <c r="B3" s="27">
+        <v>42071</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>665</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>666</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J3" s="30"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="32"/>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B4" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>661</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="28" t="s">
+        <v>668</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J4" s="30"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="32"/>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B5" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>661</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>669</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J5" s="30"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="32"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27">
+        <v>42081</v>
+      </c>
+      <c r="B6" s="27">
+        <v>42111</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="32"/>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27">
+        <v>42079</v>
+      </c>
+      <c r="B7" s="27">
+        <v>42109</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>661</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>670</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="28" t="s">
+        <v>671</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="28" t="s">
+        <v>672</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="30"/>
+      <c r="K7" s="28" t="s">
+        <v>671</v>
+      </c>
+      <c r="L7" s="27">
+        <v>42079</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27">
+        <v>42079</v>
+      </c>
+      <c r="B8" s="27">
+        <v>42109</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>673</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>674</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="28" t="s">
+        <v>675</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="30"/>
+      <c r="K8" s="28" t="s">
+        <v>675</v>
+      </c>
+      <c r="L8" s="27">
+        <v>42079</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27">
+        <v>42058</v>
+      </c>
+      <c r="B9" s="27">
+        <v>42088</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>676</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J9" s="30"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="32"/>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27">
+        <v>42060</v>
+      </c>
+      <c r="B10" s="27">
+        <v>42090</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>679</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J10" s="30"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="32"/>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B11" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>676</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J11" s="30"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="32"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B12" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J12" s="30"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="32"/>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B13" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>684</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>685</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J13" s="30"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="32"/>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B14" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>686</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J14" s="30"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="32"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B15" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>689</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J15" s="30"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="32"/>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27">
+        <v>42093</v>
+      </c>
+      <c r="B16" s="27">
+        <v>42123</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>691</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="30"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="32"/>
+    </row>
+    <row r="17" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27">
+        <v>42032</v>
+      </c>
+      <c r="B17" s="27">
+        <v>42062</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>692</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>693</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J17" s="30"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="32"/>
+    </row>
+    <row r="18" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27">
+        <v>42038</v>
+      </c>
+      <c r="B18" s="27">
+        <v>42068</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>694</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>695</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J18" s="30"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="32"/>
+    </row>
+    <row r="19" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27">
+        <v>42038</v>
+      </c>
+      <c r="B19" s="27">
+        <v>42068</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>692</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>696</v>
+      </c>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J19" s="30"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="32"/>
+    </row>
+    <row r="20" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27">
+        <v>42038</v>
+      </c>
+      <c r="B20" s="27">
+        <v>42068</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>697</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>698</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>699</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J20" s="30"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="32"/>
+    </row>
+    <row r="21" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27">
+        <v>42038</v>
+      </c>
+      <c r="B21" s="27">
+        <v>42068</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>700</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>701</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="28" t="s">
+        <v>702</v>
+      </c>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J21" s="30"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="32"/>
+    </row>
+    <row r="22" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27">
+        <v>42038</v>
+      </c>
+      <c r="B22" s="27">
+        <v>42068</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>703</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>704</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J22" s="30"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="32"/>
+    </row>
+    <row r="23" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27">
+        <v>42044</v>
+      </c>
+      <c r="B23" s="27">
+        <v>42074</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>705</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>706</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J23" s="30"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="32"/>
+    </row>
+    <row r="24" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="27">
+        <v>42044</v>
+      </c>
+      <c r="B24" s="27">
+        <v>42074</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>694</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>707</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>708</v>
+      </c>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J24" s="30"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="32"/>
+    </row>
+    <row r="25" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="27">
+        <v>42044</v>
+      </c>
+      <c r="B25" s="27">
+        <v>42074</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>697</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>709</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J25" s="30"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="32"/>
+    </row>
+    <row r="26" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="27">
+        <v>42044</v>
+      </c>
+      <c r="B26" s="27">
+        <v>42074</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>694</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>710</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>711</v>
+      </c>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J26" s="30"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="32"/>
+    </row>
+    <row r="27" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="27">
+        <v>42060</v>
+      </c>
+      <c r="B27" s="27">
+        <v>42090</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>692</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>712</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>713</v>
+      </c>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J27" s="30"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="32"/>
+    </row>
+    <row r="28" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B28" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>714</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J28" s="30"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="32"/>
+    </row>
+    <row r="29" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B29" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>692</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>716</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>717</v>
+      </c>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J29" s="30"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="32"/>
+    </row>
+    <row r="30" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B30" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>719</v>
+      </c>
+      <c r="E30" s="29"/>
+      <c r="F30" s="28" t="s">
+        <v>720</v>
+      </c>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J30" s="30"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="32"/>
+    </row>
+    <row r="31" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="27">
+        <v>42083</v>
+      </c>
+      <c r="B31" s="27">
+        <v>42113</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>721</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>722</v>
+      </c>
+      <c r="E31" s="29"/>
+      <c r="F31" s="28" t="s">
+        <v>723</v>
+      </c>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="J31" s="30"/>
+      <c r="K31" s="28" t="s">
+        <v>723</v>
+      </c>
+      <c r="L31" s="27">
+        <v>42083</v>
+      </c>
+      <c r="M31" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="27">
+        <v>42041</v>
+      </c>
+      <c r="B32" s="27">
+        <v>42071</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>724</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>725</v>
+      </c>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="32"/>
+    </row>
+    <row r="33" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="27">
+        <v>42041</v>
+      </c>
+      <c r="B33" s="27">
+        <v>42071</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>726</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>727</v>
+      </c>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J33" s="30"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="32"/>
+    </row>
+    <row r="34" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="27">
+        <v>42041</v>
+      </c>
+      <c r="B34" s="27">
+        <v>42071</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>729</v>
+      </c>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J34" s="30"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="32"/>
+    </row>
+    <row r="35" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="27">
+        <v>42044</v>
+      </c>
+      <c r="B35" s="27">
+        <v>42074</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>730</v>
+      </c>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J35" s="30"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="32"/>
+    </row>
+    <row r="36" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="27">
+        <v>42058</v>
+      </c>
+      <c r="B36" s="27">
+        <v>42088</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>726</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J36" s="30"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="32"/>
+    </row>
+    <row r="37" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B37" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>732</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>733</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J37" s="30"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="32"/>
+    </row>
+    <row r="38" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B38" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>726</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>734</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J38" s="30"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="32"/>
+    </row>
+    <row r="39" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B39" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>735</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>736</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J39" s="30"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="32"/>
+    </row>
+    <row r="40" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B40" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>737</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>738</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J40" s="30"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="32"/>
+    </row>
+    <row r="41" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B41" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>739</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J41" s="30"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="32"/>
+    </row>
+    <row r="42" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="29"/>
+      <c r="B42" s="27">
+        <v>29</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="28" t="s">
+        <v>741</v>
+      </c>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42" s="30"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="32"/>
+    </row>
+    <row r="43" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="29"/>
+      <c r="B43" s="27">
+        <v>29</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="28" t="s">
+        <v>742</v>
+      </c>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="J43" s="30"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="32"/>
+    </row>
+    <row r="44" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="29"/>
+      <c r="B44" s="27">
+        <v>29</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="28" t="s">
+        <v>743</v>
+      </c>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="J44" s="30"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="32"/>
+    </row>
+    <row r="45" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="29"/>
+      <c r="B45" s="27">
+        <v>29</v>
+      </c>
+      <c r="C45" s="29"/>
+      <c r="D45" s="28" t="s">
+        <v>744</v>
+      </c>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="J45" s="30"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="32"/>
+    </row>
+    <row r="46" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="29"/>
+      <c r="B46" s="27">
+        <v>29</v>
+      </c>
+      <c r="C46" s="29"/>
+      <c r="D46" s="28" t="s">
+        <v>745</v>
+      </c>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="J46" s="30"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="32"/>
+    </row>
+    <row r="47" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="27">
+        <v>42046</v>
+      </c>
+      <c r="B47" s="27">
+        <v>42076</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>746</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>747</v>
+      </c>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="32"/>
+    </row>
+    <row r="48" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="27">
+        <v>42100</v>
+      </c>
+      <c r="B48" s="27">
+        <v>42130</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>732</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>748</v>
+      </c>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J48" s="30"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="32"/>
+    </row>
+    <row r="49" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="27">
+        <v>42100</v>
+      </c>
+      <c r="B49" s="27">
+        <v>42130</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>732</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>749</v>
+      </c>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="32"/>
+    </row>
+    <row r="50" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="27">
+        <v>42100</v>
+      </c>
+      <c r="B50" s="27">
+        <v>42130</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>750</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>751</v>
+      </c>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J50" s="30"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="32"/>
+    </row>
+    <row r="51" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="27">
+        <v>42009</v>
+      </c>
+      <c r="B51" s="27">
+        <v>42039</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>752</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>753</v>
+      </c>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J51" s="30"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="32"/>
+    </row>
+    <row r="52" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="27">
+        <v>42040</v>
+      </c>
+      <c r="B52" s="27">
+        <v>42070</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>754</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>755</v>
+      </c>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="J52" s="30"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="32"/>
+    </row>
+    <row r="53" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="27">
+        <v>42044</v>
+      </c>
+      <c r="B53" s="27">
+        <v>42074</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>752</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>756</v>
+      </c>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J53" s="30"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="32"/>
+    </row>
+    <row r="54" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="27">
+        <v>42048</v>
+      </c>
+      <c r="B54" s="27">
+        <v>42078</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>757</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>758</v>
+      </c>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="J54" s="30"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="32"/>
+    </row>
+    <row r="55" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B55" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>752</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>759</v>
+      </c>
+      <c r="E55" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J55" s="30"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="32"/>
+    </row>
+    <row r="56" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="27">
+        <v>42083</v>
+      </c>
+      <c r="B56" s="27">
+        <v>42113</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>752</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>760</v>
+      </c>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="30"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="32"/>
+    </row>
+    <row r="57" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="29"/>
+      <c r="B57" s="27">
+        <v>29</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>752</v>
+      </c>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="32"/>
+    </row>
+    <row r="58" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="27">
+        <v>42078</v>
+      </c>
+      <c r="B58" s="27">
+        <v>42108</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>752</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>761</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>762</v>
+      </c>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J58" s="30"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="32"/>
+    </row>
+    <row r="59" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="27">
+        <v>42094</v>
+      </c>
+      <c r="B59" s="27">
+        <v>42124</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>752</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>763</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>764</v>
+      </c>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J59" s="30"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="32"/>
+    </row>
+    <row r="60" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="27">
+        <v>42038</v>
+      </c>
+      <c r="B60" s="27">
+        <v>42068</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>765</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>766</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J60" s="30"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="32"/>
+    </row>
+    <row r="61" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="27">
+        <v>42040</v>
+      </c>
+      <c r="B61" s="27">
+        <v>42070</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>767</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>768</v>
+      </c>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J61" s="30"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="32"/>
+    </row>
+    <row r="62" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="27">
+        <v>42041</v>
+      </c>
+      <c r="B62" s="27">
+        <v>42071</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>769</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>770</v>
+      </c>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J62" s="30"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="32"/>
+    </row>
+    <row r="63" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="27">
+        <v>42012</v>
+      </c>
+      <c r="B63" s="27">
+        <v>42042</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>771</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>772</v>
+      </c>
+      <c r="E63" s="29"/>
+      <c r="F63" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="28" t="s">
+        <v>774</v>
+      </c>
+      <c r="J63" s="31"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="32"/>
+    </row>
+    <row r="64" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="27">
+        <v>42032</v>
+      </c>
+      <c r="B64" s="27">
+        <v>42062</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>775</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>776</v>
+      </c>
+      <c r="E64" s="29"/>
+      <c r="F64" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J64" s="31"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="32"/>
+    </row>
+    <row r="65" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="27">
+        <v>42032</v>
+      </c>
+      <c r="B65" s="27">
+        <v>42062</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>778</v>
+      </c>
+      <c r="E65" s="28" t="s">
+        <v>779</v>
+      </c>
+      <c r="F65" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J65" s="31"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="32"/>
+    </row>
+    <row r="66" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="27">
+        <v>42032</v>
+      </c>
+      <c r="B66" s="27">
+        <v>42062</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>780</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>781</v>
+      </c>
+      <c r="E66" s="29"/>
+      <c r="F66" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J66" s="31"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="32"/>
+    </row>
+    <row r="67" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="27">
+        <v>42032</v>
+      </c>
+      <c r="B67" s="27">
+        <v>42062</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>782</v>
+      </c>
+      <c r="E67" s="29"/>
+      <c r="F67" s="28" t="s">
+        <v>783</v>
+      </c>
+      <c r="G67" s="32"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J67" s="31"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="32"/>
+    </row>
+    <row r="68" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="27">
+        <v>42032</v>
+      </c>
+      <c r="B68" s="27">
+        <v>42062</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>784</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>785</v>
+      </c>
+      <c r="F68" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J68" s="31"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="32"/>
+    </row>
+    <row r="69" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="27">
+        <v>42032</v>
+      </c>
+      <c r="B69" s="29"/>
+      <c r="C69" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>786</v>
+      </c>
+      <c r="E69" s="29"/>
+      <c r="F69" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J69" s="31"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="32"/>
+    </row>
+    <row r="70" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="27">
+        <v>42032</v>
+      </c>
+      <c r="B70" s="27">
+        <v>42062</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>787</v>
+      </c>
+      <c r="E70" s="28" t="s">
+        <v>788</v>
+      </c>
+      <c r="F70" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J70" s="31"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="32"/>
+    </row>
+    <row r="71" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="27">
+        <v>42032</v>
+      </c>
+      <c r="B71" s="27">
+        <v>42062</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>790</v>
+      </c>
+      <c r="E71" s="28" t="s">
+        <v>791</v>
+      </c>
+      <c r="F71" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J71" s="31"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="32"/>
+    </row>
+    <row r="72" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="27">
+        <v>42032</v>
+      </c>
+      <c r="B72" s="27">
+        <v>42062</v>
+      </c>
+      <c r="C72" s="28" t="s">
+        <v>792</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>793</v>
+      </c>
+      <c r="E72" s="29"/>
+      <c r="F72" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J72" s="31"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="32"/>
+    </row>
+    <row r="73" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="27">
+        <v>42032</v>
+      </c>
+      <c r="B73" s="27">
+        <v>42062</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>794</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="E73" s="29"/>
+      <c r="F73" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J73" s="31"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="29"/>
+      <c r="M73" s="32"/>
+    </row>
+    <row r="74" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="27">
+        <v>42038</v>
+      </c>
+      <c r="B74" s="27">
+        <v>42068</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>796</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>797</v>
+      </c>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J74" s="31"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="29"/>
+      <c r="M74" s="32"/>
+    </row>
+    <row r="75" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="27">
+        <v>42038</v>
+      </c>
+      <c r="B75" s="27">
+        <v>42068</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>798</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>799</v>
+      </c>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J75" s="31"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="32"/>
+    </row>
+    <row r="76" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="27">
+        <v>42038</v>
+      </c>
+      <c r="B76" s="27">
+        <v>42068</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>800</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>801</v>
+      </c>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J76" s="31"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="29"/>
+      <c r="M76" s="32"/>
+    </row>
+    <row r="77" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="27">
+        <v>42038</v>
+      </c>
+      <c r="B77" s="27">
+        <v>42038</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>802</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>803</v>
+      </c>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J77" s="31"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="32"/>
+    </row>
+    <row r="78" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="27">
+        <v>42038</v>
+      </c>
+      <c r="B78" s="28" t="s">
+        <v>804</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>805</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>806</v>
+      </c>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J78" s="31"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="32"/>
+    </row>
+    <row r="79" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="27">
+        <v>42024</v>
+      </c>
+      <c r="B79" s="27">
+        <v>42054</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>807</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="E79" s="29"/>
+      <c r="F79" s="28" t="s">
+        <v>808</v>
+      </c>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J79" s="30"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="32"/>
+    </row>
+    <row r="80" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="27">
+        <v>42009</v>
+      </c>
+      <c r="B80" s="27">
+        <v>42039</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>809</v>
+      </c>
+      <c r="E80" s="29"/>
+      <c r="F80" s="28" t="s">
+        <v>808</v>
+      </c>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J80" s="30"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="29"/>
+      <c r="M80" s="32"/>
+    </row>
+    <row r="81" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="27">
+        <v>42040</v>
+      </c>
+      <c r="B81" s="27">
+        <v>42070</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>810</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>811</v>
+      </c>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J81" s="30"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="29"/>
+      <c r="M81" s="32"/>
+    </row>
+    <row r="82" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="27">
+        <v>42010</v>
+      </c>
+      <c r="B82" s="27">
+        <v>42040</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>812</v>
+      </c>
+      <c r="E82" s="28" t="s">
+        <v>813</v>
+      </c>
+      <c r="F82" s="28" t="s">
+        <v>783</v>
+      </c>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J82" s="30"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="29"/>
+      <c r="M82" s="32"/>
+    </row>
+    <row r="83" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="27">
+        <v>42041</v>
+      </c>
+      <c r="B83" s="27">
+        <v>42071</v>
+      </c>
+      <c r="C83" s="28" t="s">
+        <v>814</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>815</v>
+      </c>
+      <c r="E83" s="29"/>
+      <c r="F83" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J83" s="30"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="32"/>
+    </row>
+    <row r="84" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="27">
+        <v>42044</v>
+      </c>
+      <c r="B84" s="27">
+        <v>42074</v>
+      </c>
+      <c r="C84" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>816</v>
+      </c>
+      <c r="E84" s="28" t="s">
+        <v>817</v>
+      </c>
+      <c r="F84" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J84" s="30"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="32"/>
+    </row>
+    <row r="85" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="27">
+        <v>42044</v>
+      </c>
+      <c r="B85" s="27">
+        <v>42074</v>
+      </c>
+      <c r="C85" s="28" t="s">
+        <v>818</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>819</v>
+      </c>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J85" s="30"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="29"/>
+      <c r="M85" s="32"/>
+    </row>
+    <row r="86" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="27">
+        <v>42044</v>
+      </c>
+      <c r="B86" s="27">
+        <v>42074</v>
+      </c>
+      <c r="C86" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J86" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="K86" s="29"/>
+      <c r="L86" s="29"/>
+      <c r="M86" s="32"/>
+    </row>
+    <row r="87" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="27">
+        <v>42058</v>
+      </c>
+      <c r="B87" s="27">
+        <v>42088</v>
+      </c>
+      <c r="C87" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="D87" s="28" t="s">
+        <v>822</v>
+      </c>
+      <c r="E87" s="29"/>
+      <c r="F87" s="28" t="s">
+        <v>823</v>
+      </c>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="29"/>
+      <c r="L87" s="29"/>
+      <c r="M87" s="32"/>
+    </row>
+    <row r="88" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="27">
+        <v>42060</v>
+      </c>
+      <c r="B88" s="27">
+        <v>42090</v>
+      </c>
+      <c r="C88" s="28" t="s">
+        <v>807</v>
+      </c>
+      <c r="D88" s="28" t="s">
+        <v>824</v>
+      </c>
+      <c r="E88" s="29"/>
+      <c r="F88" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J88" s="30"/>
+      <c r="K88" s="29"/>
+      <c r="L88" s="29"/>
+      <c r="M88" s="32"/>
+    </row>
+    <row r="89" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="27">
+        <v>42060</v>
+      </c>
+      <c r="B89" s="27">
+        <v>42090</v>
+      </c>
+      <c r="C89" s="28" t="s">
+        <v>802</v>
+      </c>
+      <c r="D89" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="E89" s="29"/>
+      <c r="F89" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J89" s="30"/>
+      <c r="K89" s="29"/>
+      <c r="L89" s="29"/>
+      <c r="M89" s="32"/>
+    </row>
+    <row r="90" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="27">
+        <v>42060</v>
+      </c>
+      <c r="B90" s="27">
+        <v>42090</v>
+      </c>
+      <c r="C90" s="28" t="s">
+        <v>802</v>
+      </c>
+      <c r="D90" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="E90" s="29"/>
+      <c r="F90" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J90" s="30"/>
+      <c r="K90" s="29"/>
+      <c r="L90" s="29"/>
+      <c r="M90" s="32"/>
+    </row>
+    <row r="91" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B91" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C91" s="28" t="s">
+        <v>807</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>827</v>
+      </c>
+      <c r="E91" s="29"/>
+      <c r="F91" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J91" s="30"/>
+      <c r="K91" s="29"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="32"/>
+    </row>
+    <row r="92" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B92" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C92" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>828</v>
+      </c>
+      <c r="E92" s="28" t="s">
+        <v>829</v>
+      </c>
+      <c r="F92" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J92" s="30"/>
+      <c r="K92" s="29"/>
+      <c r="L92" s="29"/>
+      <c r="M92" s="32"/>
+    </row>
+    <row r="93" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B93" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C93" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="D93" s="28" t="s">
+        <v>830</v>
+      </c>
+      <c r="E93" s="29"/>
+      <c r="F93" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J93" s="30"/>
+      <c r="K93" s="29"/>
+      <c r="L93" s="29"/>
+      <c r="M93" s="32"/>
+    </row>
+    <row r="94" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B94" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C94" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="D94" s="28" t="s">
+        <v>831</v>
+      </c>
+      <c r="E94" s="28" t="s">
+        <v>832</v>
+      </c>
+      <c r="F94" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J94" s="30"/>
+      <c r="K94" s="29"/>
+      <c r="L94" s="29"/>
+      <c r="M94" s="32"/>
+    </row>
+    <row r="95" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B95" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C95" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="D95" s="28" t="s">
+        <v>833</v>
+      </c>
+      <c r="E95" s="28" t="s">
+        <v>834</v>
+      </c>
+      <c r="F95" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J95" s="30"/>
+      <c r="K95" s="29"/>
+      <c r="L95" s="29"/>
+      <c r="M95" s="32"/>
+    </row>
+    <row r="96" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B96" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C96" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="D96" s="28" t="s">
+        <v>835</v>
+      </c>
+      <c r="E96" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="F96" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J96" s="30"/>
+      <c r="K96" s="29"/>
+      <c r="L96" s="29"/>
+      <c r="M96" s="32"/>
+    </row>
+    <row r="97" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B97" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C97" s="28" t="s">
+        <v>837</v>
+      </c>
+      <c r="D97" s="28" t="s">
+        <v>838</v>
+      </c>
+      <c r="E97" s="29"/>
+      <c r="F97" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J97" s="30"/>
+      <c r="K97" s="29"/>
+      <c r="L97" s="29"/>
+      <c r="M97" s="32"/>
+    </row>
+    <row r="98" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B98" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C98" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="D98" s="28" t="s">
+        <v>839</v>
+      </c>
+      <c r="E98" s="28" t="s">
+        <v>840</v>
+      </c>
+      <c r="F98" s="28" t="s">
+        <v>717</v>
+      </c>
+      <c r="G98" s="29"/>
+      <c r="H98" s="34">
+        <v>7027554145</v>
+      </c>
+      <c r="I98" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J98" s="30"/>
+      <c r="K98" s="29"/>
+      <c r="L98" s="29"/>
+      <c r="M98" s="32"/>
+    </row>
+    <row r="99" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B99" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>842</v>
+      </c>
+      <c r="E99" s="29"/>
+      <c r="F99" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J99" s="30"/>
+      <c r="K99" s="29"/>
+      <c r="L99" s="29"/>
+      <c r="M99" s="32"/>
+    </row>
+    <row r="100" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="27">
+        <v>42024</v>
+      </c>
+      <c r="B100" s="27">
+        <v>42054</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="D100" s="28" t="s">
+        <v>843</v>
+      </c>
+      <c r="E100" s="29"/>
+      <c r="F100" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="J100" s="30"/>
+      <c r="K100" s="29"/>
+      <c r="L100" s="29"/>
+      <c r="M100" s="32"/>
+    </row>
+    <row r="101" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="29"/>
+      <c r="B101" s="27">
+        <v>29</v>
+      </c>
+      <c r="C101" s="28" t="s">
+        <v>802</v>
+      </c>
+      <c r="D101" s="28" t="s">
+        <v>844</v>
+      </c>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J101" s="30"/>
+      <c r="K101" s="29"/>
+      <c r="L101" s="29"/>
+      <c r="M101" s="32"/>
+    </row>
+    <row r="102" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="27">
+        <v>42032</v>
+      </c>
+      <c r="B102" s="27">
+        <v>42062</v>
+      </c>
+      <c r="C102" s="28" t="s">
+        <v>845</v>
+      </c>
+      <c r="D102" s="28" t="s">
+        <v>846</v>
+      </c>
+      <c r="E102" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J102" s="30"/>
+      <c r="K102" s="29"/>
+      <c r="L102" s="29"/>
+      <c r="M102" s="32"/>
+    </row>
+    <row r="103" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="27">
+        <v>42032</v>
+      </c>
+      <c r="B103" s="27">
+        <v>42062</v>
+      </c>
+      <c r="C103" s="28" t="s">
+        <v>847</v>
+      </c>
+      <c r="D103" s="28" t="s">
+        <v>848</v>
+      </c>
+      <c r="E103" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J103" s="33" t="s">
+        <v>849</v>
+      </c>
+      <c r="K103" s="29"/>
+      <c r="L103" s="29"/>
+      <c r="M103" s="32"/>
+    </row>
+    <row r="104" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="27">
+        <v>42038</v>
+      </c>
+      <c r="B104" s="27">
+        <v>42068</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>845</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>850</v>
+      </c>
+      <c r="E104" s="29"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="29"/>
+      <c r="I104" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J104" s="30"/>
+      <c r="K104" s="29"/>
+      <c r="L104" s="29"/>
+      <c r="M104" s="32"/>
+    </row>
+    <row r="105" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="27">
+        <v>42041</v>
+      </c>
+      <c r="B105" s="27">
+        <v>42071</v>
+      </c>
+      <c r="C105" s="28" t="s">
+        <v>851</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>852</v>
+      </c>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="29"/>
+      <c r="I105" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J105" s="30"/>
+      <c r="K105" s="29"/>
+      <c r="L105" s="29"/>
+      <c r="M105" s="32"/>
+    </row>
+    <row r="106" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="27">
+        <v>42041</v>
+      </c>
+      <c r="B106" s="27">
+        <v>42071</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>845</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>853</v>
+      </c>
+      <c r="E106" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J106" s="30"/>
+      <c r="K106" s="29"/>
+      <c r="L106" s="29"/>
+      <c r="M106" s="32"/>
+    </row>
+    <row r="107" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="27">
+        <v>42041</v>
+      </c>
+      <c r="B107" s="27">
+        <v>42071</v>
+      </c>
+      <c r="C107" s="28" t="s">
+        <v>845</v>
+      </c>
+      <c r="D107" s="28" t="s">
+        <v>854</v>
+      </c>
+      <c r="E107" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J107" s="30"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="29"/>
+      <c r="M107" s="32"/>
+    </row>
+    <row r="108" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="27">
+        <v>42041</v>
+      </c>
+      <c r="B108" s="27">
+        <v>42071</v>
+      </c>
+      <c r="C108" s="28" t="s">
+        <v>855</v>
+      </c>
+      <c r="D108" s="28" t="s">
+        <v>856</v>
+      </c>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J108" s="30"/>
+      <c r="K108" s="29"/>
+      <c r="L108" s="29"/>
+      <c r="M108" s="32"/>
+    </row>
+    <row r="109" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="27">
+        <v>42044</v>
+      </c>
+      <c r="B109" s="27">
+        <v>42074</v>
+      </c>
+      <c r="C109" s="28" t="s">
+        <v>845</v>
+      </c>
+      <c r="D109" s="28" t="s">
+        <v>857</v>
+      </c>
+      <c r="E109" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J109" s="30"/>
+      <c r="K109" s="29"/>
+      <c r="L109" s="29"/>
+      <c r="M109" s="32"/>
+    </row>
+    <row r="110" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="27">
+        <v>42044</v>
+      </c>
+      <c r="B110" s="27">
+        <v>42074</v>
+      </c>
+      <c r="C110" s="28" t="s">
+        <v>858</v>
+      </c>
+      <c r="D110" s="28" t="s">
+        <v>859</v>
+      </c>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="29"/>
+      <c r="I110" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J110" s="30"/>
+      <c r="K110" s="29"/>
+      <c r="L110" s="29"/>
+      <c r="M110" s="32"/>
+    </row>
+    <row r="111" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="27">
+        <v>42044</v>
+      </c>
+      <c r="B111" s="27">
+        <v>42074</v>
+      </c>
+      <c r="C111" s="28" t="s">
+        <v>860</v>
+      </c>
+      <c r="D111" s="28" t="s">
+        <v>861</v>
+      </c>
+      <c r="E111" s="29"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="29"/>
+      <c r="I111" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J111" s="30"/>
+      <c r="K111" s="29"/>
+      <c r="L111" s="29"/>
+      <c r="M111" s="32"/>
+    </row>
+    <row r="112" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="27">
+        <v>42044</v>
+      </c>
+      <c r="B112" s="27">
+        <v>42074</v>
+      </c>
+      <c r="C112" s="28" t="s">
+        <v>862</v>
+      </c>
+      <c r="D112" s="28" t="s">
+        <v>863</v>
+      </c>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="29"/>
+      <c r="I112" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J112" s="30"/>
+      <c r="K112" s="29"/>
+      <c r="L112" s="29"/>
+      <c r="M112" s="32"/>
+    </row>
+    <row r="113" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="27">
+        <v>42060</v>
+      </c>
+      <c r="B113" s="27">
+        <v>42090</v>
+      </c>
+      <c r="C113" s="28" t="s">
+        <v>864</v>
+      </c>
+      <c r="D113" s="28" t="s">
+        <v>865</v>
+      </c>
+      <c r="E113" s="28" t="s">
+        <v>866</v>
+      </c>
+      <c r="F113" s="29"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J113" s="30"/>
+      <c r="K113" s="29"/>
+      <c r="L113" s="29"/>
+      <c r="M113" s="32"/>
+    </row>
+    <row r="114" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="27">
+        <v>42060</v>
+      </c>
+      <c r="B114" s="27">
+        <v>42090</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>867</v>
+      </c>
+      <c r="D114" s="28" t="s">
+        <v>868</v>
+      </c>
+      <c r="E114" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F114" s="29"/>
+      <c r="G114" s="29"/>
+      <c r="H114" s="29"/>
+      <c r="I114" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J114" s="30"/>
+      <c r="K114" s="29"/>
+      <c r="L114" s="29"/>
+      <c r="M114" s="32"/>
+    </row>
+    <row r="115" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="27">
+        <v>42060</v>
+      </c>
+      <c r="B115" s="27">
+        <v>42090</v>
+      </c>
+      <c r="C115" s="28" t="s">
+        <v>860</v>
+      </c>
+      <c r="D115" s="28" t="s">
+        <v>869</v>
+      </c>
+      <c r="E115" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F115" s="29"/>
+      <c r="G115" s="29"/>
+      <c r="H115" s="29"/>
+      <c r="I115" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J115" s="30"/>
+      <c r="K115" s="29"/>
+      <c r="L115" s="29"/>
+      <c r="M115" s="32"/>
+    </row>
+    <row r="116" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B116" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C116" s="28" t="s">
+        <v>792</v>
+      </c>
+      <c r="D116" s="28" t="s">
+        <v>870</v>
+      </c>
+      <c r="E116" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F116" s="29"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="29"/>
+      <c r="I116" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J116" s="30"/>
+      <c r="K116" s="29"/>
+      <c r="L116" s="29"/>
+      <c r="M116" s="32"/>
+    </row>
+    <row r="117" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B117" s="27">
+        <v>29</v>
+      </c>
+      <c r="C117" s="28" t="s">
+        <v>871</v>
+      </c>
+      <c r="D117" s="28" t="s">
+        <v>872</v>
+      </c>
+      <c r="E117" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F117" s="29"/>
+      <c r="G117" s="28" t="s">
+        <v>873</v>
+      </c>
+      <c r="H117" s="29"/>
+      <c r="I117" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J117" s="30"/>
+      <c r="K117" s="29"/>
+      <c r="L117" s="29"/>
+      <c r="M117" s="32"/>
+    </row>
+    <row r="118" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B118" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C118" s="28" t="s">
+        <v>874</v>
+      </c>
+      <c r="D118" s="28" t="s">
+        <v>875</v>
+      </c>
+      <c r="E118" s="28" t="s">
+        <v>876</v>
+      </c>
+      <c r="F118" s="29"/>
+      <c r="G118" s="29"/>
+      <c r="H118" s="29"/>
+      <c r="I118" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J118" s="30"/>
+      <c r="K118" s="29"/>
+      <c r="L118" s="29"/>
+      <c r="M118" s="32"/>
+    </row>
+    <row r="119" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="36">
+        <v>42074</v>
+      </c>
+      <c r="B119" s="36">
+        <v>42104</v>
+      </c>
+      <c r="C119" s="37" t="s">
+        <v>877</v>
+      </c>
+      <c r="D119" s="37" t="s">
+        <v>878</v>
+      </c>
+      <c r="E119" s="38"/>
+      <c r="F119" s="38"/>
+      <c r="G119" s="38"/>
+      <c r="H119" s="38"/>
+      <c r="I119" s="37" t="s">
+        <v>663</v>
+      </c>
+      <c r="J119" s="31"/>
+      <c r="K119" s="38"/>
+      <c r="L119" s="38"/>
+      <c r="M119" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" customWidth="1"/>
+    <col min="15" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27">
+        <v>42089</v>
+      </c>
+      <c r="B1" s="27">
+        <v>42119</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>661</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>879</v>
+      </c>
+      <c r="E1" s="29"/>
+      <c r="F1" s="28" t="s">
+        <v>880</v>
+      </c>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="30"/>
+      <c r="K1" s="28" t="s">
+        <v>880</v>
+      </c>
+      <c r="L1" s="27">
+        <v>42087</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="32"/>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27">
+        <v>42038</v>
+      </c>
+      <c r="B2" s="27">
+        <v>42068</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>705</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>881</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>882</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J2" s="30"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="28" t="s">
+        <v>883</v>
+      </c>
+      <c r="Q2" s="43">
+        <v>42058</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27">
+        <v>42322</v>
+      </c>
+      <c r="B3" s="27">
+        <v>42352</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>884</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>885</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>886</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="30"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="28" t="s">
+        <v>883</v>
+      </c>
+      <c r="Q3" s="43">
+        <v>42058</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27">
+        <v>42058</v>
+      </c>
+      <c r="B4" s="27">
+        <v>42088</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>692</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>887</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="30"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="28" t="s">
+        <v>883</v>
+      </c>
+      <c r="Q4" s="43">
+        <v>42058</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27">
+        <v>42032</v>
+      </c>
+      <c r="B5" s="27">
+        <v>42062</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>754</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J5" s="30"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="28" t="s">
+        <v>883</v>
+      </c>
+      <c r="P5" s="27">
+        <v>42058</v>
+      </c>
+      <c r="Q5" s="40"/>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27">
+        <v>42024</v>
+      </c>
+      <c r="B6" s="27">
+        <v>42054</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>752</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>889</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="30"/>
+      <c r="K6" s="28" t="s">
+        <v>890</v>
+      </c>
+      <c r="L6" s="27">
+        <v>42024</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="40"/>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27">
+        <v>42037</v>
+      </c>
+      <c r="B7" s="27">
+        <v>42067</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>752</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>891</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>892</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="30"/>
+      <c r="K7" s="28" t="s">
+        <v>893</v>
+      </c>
+      <c r="L7" s="27">
+        <v>42038</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="40"/>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27">
+        <v>42052</v>
+      </c>
+      <c r="B8" s="27">
+        <v>42082</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>752</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>894</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="30"/>
+      <c r="K8" s="28" t="s">
+        <v>895</v>
+      </c>
+      <c r="L8" s="27">
+        <v>42053</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="40"/>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27">
+        <v>42048</v>
+      </c>
+      <c r="B9" s="27">
+        <v>42078</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>752</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>896</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="30"/>
+      <c r="K9" s="28" t="s">
+        <v>897</v>
+      </c>
+      <c r="L9" s="27">
+        <v>42048</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="40"/>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B10" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>752</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>898</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J10" s="30"/>
+      <c r="K10" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="27">
+        <v>42083</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="40"/>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
+      <c r="B11" s="27">
+        <v>29</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>752</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="27">
+        <v>42083</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="40"/>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27">
+        <v>42080</v>
+      </c>
+      <c r="B12" s="27">
+        <v>42110</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>752</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>899</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="30"/>
+      <c r="K12" s="28" t="s">
+        <v>900</v>
+      </c>
+      <c r="L12" s="27">
+        <v>42080</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="40"/>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27">
+        <v>42093</v>
+      </c>
+      <c r="B13" s="27">
+        <v>42123</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>752</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>901</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="30"/>
+      <c r="K13" s="28" t="s">
+        <v>902</v>
+      </c>
+      <c r="L13" s="27">
+        <v>42093</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="40"/>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27">
+        <v>42005</v>
+      </c>
+      <c r="B14" s="27">
+        <v>42035</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>903</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>904</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>905</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="31"/>
+      <c r="K14" s="28" t="s">
+        <v>905</v>
+      </c>
+      <c r="L14" s="27">
+        <v>42012</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="32"/>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27">
+        <v>41920</v>
+      </c>
+      <c r="B15" s="27">
+        <v>41950</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>802</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>776</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>906</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="31"/>
+      <c r="K15" s="28" t="s">
+        <v>906</v>
+      </c>
+      <c r="L15" s="27">
+        <v>41960</v>
+      </c>
+      <c r="M15" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="32"/>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27">
+        <v>42032</v>
+      </c>
+      <c r="B16" s="27">
+        <v>42062</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>907</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>838</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J16" s="31"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="O16" s="27">
+        <v>42058</v>
+      </c>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="32"/>
+    </row>
+    <row r="17" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27">
+        <v>42032</v>
+      </c>
+      <c r="B17" s="27">
+        <v>42062</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>909</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>910</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J17" s="31"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="O17" s="27">
+        <v>42058</v>
+      </c>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="32"/>
+    </row>
+    <row r="18" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27">
+        <v>42032</v>
+      </c>
+      <c r="B18" s="27">
+        <v>42062</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>911</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>912</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J18" s="31"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="O18" s="27">
+        <v>42058</v>
+      </c>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27">
+        <v>42038</v>
+      </c>
+      <c r="B19" s="27">
+        <v>42068</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>913</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>914</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>915</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="28" t="s">
+        <v>916</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J19" s="31"/>
+      <c r="K19" s="28" t="s">
+        <v>915</v>
+      </c>
+      <c r="L19" s="27">
+        <v>42053</v>
+      </c>
+      <c r="M19" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="32"/>
+    </row>
+    <row r="20" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27">
+        <v>42006</v>
+      </c>
+      <c r="B20" s="27">
+        <v>42036</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>917</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>918</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="O20" s="27">
+        <v>42058</v>
+      </c>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="32"/>
+    </row>
+    <row r="21" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27">
+        <v>42033</v>
+      </c>
+      <c r="B21" s="27">
+        <v>42063</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>919</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>920</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>921</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="30"/>
+      <c r="K21" s="28" t="s">
+        <v>921</v>
+      </c>
+      <c r="L21" s="27">
+        <v>42033</v>
+      </c>
+      <c r="M21" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="32"/>
+    </row>
+    <row r="22" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27">
+        <v>42032</v>
+      </c>
+      <c r="B22" s="27">
+        <v>42062</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>922</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>923</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>924</v>
+      </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="28" t="s">
+        <v>925</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="30"/>
+      <c r="K22" s="28" t="s">
+        <v>924</v>
+      </c>
+      <c r="L22" s="27">
+        <v>42038</v>
+      </c>
+      <c r="M22" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27">
+        <v>42024</v>
+      </c>
+      <c r="B23" s="27">
+        <v>42054</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>926</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>927</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="42">
+        <v>0</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>927</v>
+      </c>
+      <c r="L23" s="27">
+        <v>42044</v>
+      </c>
+      <c r="M23" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="32"/>
+    </row>
+    <row r="24" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="27">
+        <v>42044</v>
+      </c>
+      <c r="B24" s="27">
+        <v>42074</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>802</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>928</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J24" s="30"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="O24" s="27">
+        <v>42089</v>
+      </c>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="32"/>
+    </row>
+    <row r="25" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="27">
+        <v>42044</v>
+      </c>
+      <c r="B25" s="27">
+        <v>42074</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>810</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>929</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>930</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="28" t="s">
+        <v>931</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="30"/>
+      <c r="K25" s="28" t="s">
+        <v>930</v>
+      </c>
+      <c r="L25" s="27">
+        <v>42044</v>
+      </c>
+      <c r="M25" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="32"/>
+    </row>
+    <row r="26" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="27">
+        <v>42034</v>
+      </c>
+      <c r="B26" s="27">
+        <v>42064</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>802</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>932</v>
+      </c>
+      <c r="E26" s="29"/>
+      <c r="F26" s="28" t="s">
+        <v>933</v>
+      </c>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="30"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="O26" s="27">
+        <v>42058</v>
+      </c>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="32"/>
+    </row>
+    <row r="27" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="27">
+        <v>41957</v>
+      </c>
+      <c r="B27" s="27">
+        <v>41987</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>934</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>935</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="F27" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="30"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="O27" s="27">
+        <v>42058</v>
+      </c>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="32"/>
+    </row>
+    <row r="28" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="27">
+        <v>42060</v>
+      </c>
+      <c r="B28" s="27">
+        <v>42090</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>805</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>936</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="F28" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J28" s="30"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="O28" s="27">
+        <v>42089</v>
+      </c>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="32"/>
+    </row>
+    <row r="29" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="27">
+        <v>42060</v>
+      </c>
+      <c r="B29" s="27">
+        <v>42090</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>937</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>938</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J29" s="30"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="27">
+        <v>42089</v>
+      </c>
+      <c r="Q29" s="32"/>
+    </row>
+    <row r="30" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B30" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>939</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>940</v>
+      </c>
+      <c r="E30" s="29"/>
+      <c r="F30" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J30" s="30"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="27">
+        <v>42089</v>
+      </c>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B31" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>942</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J31" s="30"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="27">
+        <v>42089</v>
+      </c>
+      <c r="Q31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="27">
+        <v>42027</v>
+      </c>
+      <c r="B32" s="27">
+        <v>42057</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>943</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>944</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32" s="30"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="27">
+        <v>42089</v>
+      </c>
+      <c r="Q32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="27">
+        <v>42037</v>
+      </c>
+      <c r="B33" s="27">
+        <v>42067</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>945</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>946</v>
+      </c>
+      <c r="E33" s="29"/>
+      <c r="F33" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="J33" s="30"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="27">
+        <v>42089</v>
+      </c>
+      <c r="Q33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="27">
+        <v>42089</v>
+      </c>
+      <c r="B34" s="27">
+        <v>42119</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>947</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>948</v>
+      </c>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" s="30"/>
+      <c r="K34" s="28" t="s">
+        <v>948</v>
+      </c>
+      <c r="L34" s="27">
+        <v>42081</v>
+      </c>
+      <c r="M34" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="27">
+        <v>42032</v>
+      </c>
+      <c r="B35" s="27">
+        <v>42062</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>845</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>949</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J35" s="30"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="O35" s="27">
+        <v>42058</v>
+      </c>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="32"/>
+    </row>
+    <row r="36" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="27">
+        <v>42032</v>
+      </c>
+      <c r="B36" s="27">
+        <v>42062</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>950</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>951</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J36" s="30"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="O36" s="27">
+        <v>42060</v>
+      </c>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="32"/>
+    </row>
+    <row r="37" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="27">
+        <v>42032</v>
+      </c>
+      <c r="B37" s="27">
+        <v>42062</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>877</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J37" s="30"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="O37" s="27">
+        <v>42060</v>
+      </c>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="32"/>
+    </row>
+    <row r="38" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="27">
+        <v>42038</v>
+      </c>
+      <c r="B38" s="27">
+        <v>42068</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>845</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>953</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J38" s="30"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="O38" s="27">
+        <v>42060</v>
+      </c>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="32"/>
+    </row>
+    <row r="39" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="27">
+        <v>42041</v>
+      </c>
+      <c r="B39" s="27">
+        <v>42071</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>845</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>954</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J39" s="30"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="O39" s="27">
+        <v>42058</v>
+      </c>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="32"/>
+    </row>
+    <row r="40" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="27">
+        <v>42044</v>
+      </c>
+      <c r="B40" s="27">
+        <v>42074</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>860</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>955</v>
+      </c>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J40" s="30"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="O40" s="27">
+        <v>42089</v>
+      </c>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="32"/>
+    </row>
+    <row r="41" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="27">
+        <v>42030</v>
+      </c>
+      <c r="B41" s="27">
+        <v>42060</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>956</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>957</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J41" s="30"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="28" t="s">
+        <v>883</v>
+      </c>
+      <c r="Q41" s="43">
+        <v>42058</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="27">
+        <v>42060</v>
+      </c>
+      <c r="B42" s="27">
+        <v>42090</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>845</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>958</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J42" s="30"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="O42" s="27">
+        <v>42089</v>
+      </c>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="32"/>
+    </row>
+    <row r="43" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="27">
+        <v>42060</v>
+      </c>
+      <c r="B43" s="27">
+        <v>42090</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>860</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>959</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>960</v>
+      </c>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J43" s="30"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="O43" s="27">
+        <v>42089</v>
+      </c>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="32"/>
+    </row>
+    <row r="44" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="27">
+        <v>42074</v>
+      </c>
+      <c r="B44" s="27">
+        <v>42104</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>961</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>962</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J44" s="30"/>
+      <c r="K44" s="28" t="s">
+        <v>963</v>
+      </c>
+      <c r="L44" s="27">
+        <v>42080</v>
+      </c>
+      <c r="M44" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="32"/>
+    </row>
+    <row r="45" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="36">
+        <v>42052</v>
+      </c>
+      <c r="B45" s="36">
+        <v>42082</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>845</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>964</v>
+      </c>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J45" s="31"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="36">
+        <v>42089</v>
+      </c>
+      <c r="Q45" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LostAndFound/LostAndFound/Resources/LostAndFoundDatabase.xlsx
+++ b/LostAndFound/LostAndFound/Resources/LostAndFoundDatabase.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brady4\Documents\GitHub\LostAndFound\LostAndFound\LostAndFound\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\LostAndFound\LostAndFound\LostAndFound\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LostReports" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="FoundReport" sheetId="2" r:id="rId2"/>
     <sheet name="Disposed" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -1087,24 +1087,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Location lost</t>
-  </si>
-  <si>
-    <t>Lost by</t>
-  </si>
-  <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Recorded by</t>
-  </si>
-  <si>
-    <t>Item Description</t>
-  </si>
-  <si>
     <t>Text book sol y viento:beginning spanish</t>
   </si>
   <si>
@@ -2921,6 +2903,24 @@
   </si>
   <si>
     <t>black, cyclone cup</t>
+  </si>
+  <si>
+    <t>ItemDescription</t>
+  </si>
+  <si>
+    <t>LocationLost</t>
+  </si>
+  <si>
+    <t>LostBy</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>RecordedBy</t>
   </si>
 </sst>
 </file>
@@ -3471,18 +3471,19 @@
   <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="26" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="113" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3490,22 +3491,22 @@
         <v>352</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>358</v>
+        <v>959</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>353</v>
+        <v>960</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>354</v>
+        <v>961</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>355</v>
+        <v>962</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>356</v>
+        <v>963</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>357</v>
+        <v>964</v>
       </c>
       <c r="H1" s="11"/>
     </row>
@@ -3514,7 +3515,7 @@
         <v>42027</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
@@ -3524,7 +3525,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>2</v>
@@ -3536,7 +3537,7 @@
         <v>42024</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -3546,7 +3547,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>2</v>
@@ -3558,10 +3559,10 @@
         <v>42045</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
@@ -3570,7 +3571,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>2</v>
@@ -3582,7 +3583,7 @@
         <v>42100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
@@ -3592,7 +3593,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>8</v>
@@ -3604,7 +3605,7 @@
         <v>42003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -3613,10 +3614,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>11</v>
@@ -3628,10 +3629,10 @@
         <v>42020</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -3640,7 +3641,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>2</v>
@@ -3652,7 +3653,7 @@
         <v>42020</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -3664,7 +3665,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>2</v>
@@ -3676,7 +3677,7 @@
         <v>42040</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>258</v>
@@ -3688,7 +3689,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>2</v>
@@ -3700,7 +3701,7 @@
         <v>42037</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
@@ -3720,7 +3721,7 @@
         <v>42052</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>258</v>
@@ -3730,7 +3731,7 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="4" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>2</v>
@@ -3742,7 +3743,7 @@
         <v>42059</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>22</v>
@@ -3754,7 +3755,7 @@
         <v>24</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>25</v>
@@ -3766,7 +3767,7 @@
         <v>42003</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
@@ -3776,7 +3777,7 @@
         <v>8015203666</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>11</v>
@@ -3788,7 +3789,7 @@
         <v>42022</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>27</v>
@@ -3800,7 +3801,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>2</v>
@@ -3812,7 +3813,7 @@
         <v>42025</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>30</v>
@@ -3824,7 +3825,7 @@
         <v>32</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>2</v>
@@ -3836,7 +3837,7 @@
         <v>42047</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>33</v>
@@ -3848,7 +3849,7 @@
         <v>35</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>2</v>
@@ -3860,7 +3861,7 @@
         <v>42057</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>36</v>
@@ -3872,7 +3873,7 @@
         <v>38</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>25</v>
@@ -3884,7 +3885,7 @@
         <v>42060</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
@@ -3894,7 +3895,7 @@
         <v>40</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>25</v>
@@ -3906,7 +3907,7 @@
         <v>42069</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>41</v>
@@ -3918,7 +3919,7 @@
         <v>43</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>2</v>
@@ -3930,7 +3931,7 @@
         <v>42083</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
@@ -3940,7 +3941,7 @@
         <v>45</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>46</v>
@@ -3952,7 +3953,7 @@
         <v>42093</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>47</v>
@@ -3964,7 +3965,7 @@
         <v>49</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>50</v>
@@ -3976,7 +3977,7 @@
         <v>42046</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>51</v>
@@ -3988,7 +3989,7 @@
         <v>53</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>54</v>
@@ -4000,7 +4001,7 @@
         <v>42062</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>55</v>
@@ -4022,7 +4023,7 @@
         <v>42083</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>58</v>
@@ -4034,7 +4035,7 @@
         <v>60</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>46</v>
@@ -4046,10 +4047,10 @@
         <v>41976</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>61</v>
@@ -4058,7 +4059,7 @@
         <v>62</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>54</v>
@@ -4070,7 +4071,7 @@
         <v>41982</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>63</v>
@@ -4082,7 +4083,7 @@
         <v>65</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>54</v>
@@ -4094,7 +4095,7 @@
         <v>41983</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="13" t="s">
@@ -4104,7 +4105,7 @@
         <v>67</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>54</v>
@@ -4118,7 +4119,7 @@
         <v>42010</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="13" t="s">
@@ -4128,7 +4129,7 @@
         <v>70</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>54</v>
@@ -4140,7 +4141,7 @@
         <v>42010</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="13" t="s">
@@ -4150,7 +4151,7 @@
         <v>72</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>54</v>
@@ -4162,7 +4163,7 @@
         <v>42013</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>73</v>
@@ -4174,7 +4175,7 @@
         <v>75</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>54</v>
@@ -4186,7 +4187,7 @@
         <v>42013</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>76</v>
@@ -4198,7 +4199,7 @@
         <v>78</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>54</v>
@@ -4210,7 +4211,7 @@
         <v>42032</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>33</v>
@@ -4222,7 +4223,7 @@
         <v>80</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>54</v>
@@ -4234,7 +4235,7 @@
         <v>42058</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
@@ -4244,7 +4245,7 @@
         <v>82</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>54</v>
@@ -4256,7 +4257,7 @@
         <v>42058</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="13" t="s">
@@ -4266,7 +4267,7 @@
         <v>84</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>54</v>
@@ -4278,7 +4279,7 @@
         <v>42083</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="13" t="s">
@@ -4288,7 +4289,7 @@
         <v>86</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>8</v>
@@ -4300,7 +4301,7 @@
         <v>41689</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>47</v>
@@ -4312,7 +4313,7 @@
         <v>88</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>46</v>
@@ -4324,7 +4325,7 @@
         <v>42083</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
@@ -4334,7 +4335,7 @@
         <v>86</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>46</v>
@@ -4346,7 +4347,7 @@
         <v>42083</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="13"/>
@@ -4354,7 +4355,7 @@
         <v>90</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>46</v>
@@ -4366,7 +4367,7 @@
         <v>42099</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>91</v>
@@ -4378,7 +4379,7 @@
         <v>93</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="G39" s="13" t="s">
         <v>8</v>
@@ -4390,7 +4391,7 @@
         <v>42012</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
@@ -4400,7 +4401,7 @@
         <v>95</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>96</v>
@@ -4412,7 +4413,7 @@
         <v>42015</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>33</v>
@@ -4424,7 +4425,7 @@
         <v>98</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>96</v>
@@ -4436,7 +4437,7 @@
         <v>42024</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>99</v>
@@ -4448,7 +4449,7 @@
         <v>101</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>96</v>
@@ -4460,7 +4461,7 @@
         <v>42033</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>102</v>
@@ -4482,7 +4483,7 @@
         <v>42006</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
@@ -4492,7 +4493,7 @@
         <v>106</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>96</v>
@@ -4504,7 +4505,7 @@
         <v>42013</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13" t="s">
@@ -4514,7 +4515,7 @@
         <v>108</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G45" s="13" t="s">
         <v>54</v>
@@ -4527,7 +4528,7 @@
         <v>42012</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>109</v>
@@ -4539,7 +4540,7 @@
         <v>111</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>54</v>
@@ -4552,7 +4553,7 @@
         <v>42012</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>112</v>
@@ -4564,7 +4565,7 @@
         <v>114</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>54</v>
@@ -4576,7 +4577,7 @@
         <v>42014</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>115</v>
@@ -4588,7 +4589,7 @@
         <v>117</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>54</v>
@@ -4600,7 +4601,7 @@
         <v>42027</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
@@ -4620,7 +4621,7 @@
         <v>42011</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>33</v>
@@ -4632,7 +4633,7 @@
         <v>121</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>54</v>
@@ -4644,7 +4645,7 @@
         <v>42038</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
@@ -4652,7 +4653,7 @@
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="6" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>54</v>
@@ -4664,7 +4665,7 @@
         <v>42033</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
@@ -4684,7 +4685,7 @@
         <v>42038</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
@@ -4694,7 +4695,7 @@
         <v>126</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>54</v>
@@ -4706,7 +4707,7 @@
         <v>42040</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>127</v>
@@ -4718,7 +4719,7 @@
         <v>129</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>54</v>
@@ -4730,7 +4731,7 @@
         <v>42045</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>33</v>
@@ -4742,7 +4743,7 @@
         <v>131</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>54</v>
@@ -4754,7 +4755,7 @@
         <v>42044</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>132</v>
@@ -4766,7 +4767,7 @@
         <v>134</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>54</v>
@@ -4778,7 +4779,7 @@
         <v>42042</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>51</v>
@@ -4790,7 +4791,7 @@
         <v>136</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>54</v>
@@ -4802,7 +4803,7 @@
         <v>42055</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>137</v>
@@ -4814,7 +4815,7 @@
         <v>139</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>54</v>
@@ -4826,7 +4827,7 @@
         <v>42054</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
@@ -4846,7 +4847,7 @@
         <v>42054</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>142</v>
@@ -4858,7 +4859,7 @@
         <v>144</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>54</v>
@@ -4870,7 +4871,7 @@
         <v>42059</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>145</v>
@@ -4882,7 +4883,7 @@
         <v>147</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>54</v>
@@ -4894,7 +4895,7 @@
         <v>42058</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>148</v>
@@ -4906,7 +4907,7 @@
         <v>150</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>54</v>
@@ -4918,7 +4919,7 @@
         <v>42052</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>151</v>
@@ -4930,7 +4931,7 @@
         <v>153</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>54</v>
@@ -4942,7 +4943,7 @@
         <v>42059</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
@@ -4952,7 +4953,7 @@
         <v>155</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>54</v>
@@ -4964,7 +4965,7 @@
         <v>42062</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>156</v>
@@ -4976,7 +4977,7 @@
         <v>158</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>25</v>
@@ -4988,7 +4989,7 @@
         <v>42060</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>33</v>
@@ -5000,7 +5001,7 @@
         <v>160</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>25</v>
@@ -5012,10 +5013,10 @@
         <v>42088</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>161</v>
@@ -5024,7 +5025,7 @@
         <v>162</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>8</v>
@@ -5036,7 +5037,7 @@
         <v>42079</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>163</v>
@@ -5048,7 +5049,7 @@
         <v>165</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>54</v>
@@ -5060,7 +5061,7 @@
         <v>42086</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>166</v>
@@ -5072,7 +5073,7 @@
         <v>168</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>46</v>
@@ -5084,7 +5085,7 @@
         <v>42086</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>169</v>
@@ -5096,7 +5097,7 @@
         <v>171</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>46</v>
@@ -5108,7 +5109,7 @@
         <v>42094</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
@@ -5118,7 +5119,7 @@
         <v>173</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>54</v>
@@ -5130,7 +5131,7 @@
         <v>42010</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>142</v>
@@ -5142,7 +5143,7 @@
         <v>175</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>96</v>
@@ -5154,7 +5155,7 @@
         <v>42016</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>176</v>
@@ -5166,7 +5167,7 @@
         <v>178</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="G73" s="13" t="s">
         <v>96</v>
@@ -5178,7 +5179,7 @@
         <v>42014</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>179</v>
@@ -5190,7 +5191,7 @@
         <v>181</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G74" s="13" t="s">
         <v>96</v>
@@ -5202,7 +5203,7 @@
         <v>42018</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>182</v>
@@ -5214,7 +5215,7 @@
         <v>184</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="G75" s="13" t="s">
         <v>96</v>
@@ -5226,10 +5227,10 @@
         <v>42030</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D76" s="13" t="s">
         <v>185</v>
@@ -5238,7 +5239,7 @@
         <v>186</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G76" s="13" t="s">
         <v>96</v>
@@ -5250,10 +5251,10 @@
         <v>42031</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D77" s="13" t="s">
         <v>59</v>
@@ -5262,7 +5263,7 @@
         <v>60</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="G77" s="13" t="s">
         <v>96</v>
@@ -5274,7 +5275,7 @@
         <v>42045</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="13" t="s">
@@ -5284,7 +5285,7 @@
         <v>188</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G78" s="13" t="s">
         <v>96</v>
@@ -5296,7 +5297,7 @@
         <v>42058</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>142</v>
@@ -5308,7 +5309,7 @@
         <v>190</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="G79" s="13" t="s">
         <v>96</v>
@@ -5320,7 +5321,7 @@
         <v>42054</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="13" t="s">
@@ -5330,7 +5331,7 @@
         <v>192</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G80" s="13" t="s">
         <v>96</v>
@@ -5342,7 +5343,7 @@
         <v>42048</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>36</v>
@@ -5354,7 +5355,7 @@
         <v>194</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="G81" s="13" t="s">
         <v>96</v>
@@ -5366,7 +5367,7 @@
         <v>42048</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="13" t="s">
@@ -5376,7 +5377,7 @@
         <v>196</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G82" s="13" t="s">
         <v>96</v>
@@ -5388,7 +5389,7 @@
         <v>42088</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>197</v>
@@ -5400,7 +5401,7 @@
         <v>199</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="G83" s="13" t="s">
         <v>8</v>
@@ -5412,7 +5413,7 @@
         <v>42093</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>33</v>
@@ -5424,7 +5425,7 @@
         <v>201</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G84" s="13" t="s">
         <v>46</v>
@@ -5436,7 +5437,7 @@
         <v>42083</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="13" t="s">
@@ -5446,7 +5447,7 @@
         <v>203</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="G85" s="13" t="s">
         <v>46</v>
@@ -5458,7 +5459,7 @@
         <v>42013</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>204</v>
@@ -5470,7 +5471,7 @@
         <v>206</v>
       </c>
       <c r="F86" s="17" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>54</v>
@@ -5482,7 +5483,7 @@
         <v>42013</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>207</v>
@@ -5494,7 +5495,7 @@
         <v>209</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>54</v>
@@ -5506,7 +5507,7 @@
         <v>42020</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>210</v>
@@ -5518,7 +5519,7 @@
         <v>212</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>54</v>
@@ -5530,7 +5531,7 @@
         <v>42033</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>33</v>
@@ -5542,7 +5543,7 @@
         <v>214</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>54</v>
@@ -5554,7 +5555,7 @@
         <v>42019</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>215</v>
@@ -5566,7 +5567,7 @@
         <v>217</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>54</v>
@@ -5578,7 +5579,7 @@
         <v>42032</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>218</v>
@@ -5590,7 +5591,7 @@
         <v>220</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>54</v>
@@ -5602,17 +5603,17 @@
         <v>42045</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>221</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>54</v>
@@ -5624,7 +5625,7 @@
         <v>42041</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2" t="s">
@@ -5634,7 +5635,7 @@
         <v>223</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>54</v>
@@ -5646,7 +5647,7 @@
         <v>42058</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>204</v>
@@ -5658,7 +5659,7 @@
         <v>225</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>54</v>
@@ -5670,7 +5671,7 @@
         <v>42046</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>226</v>
@@ -5682,7 +5683,7 @@
         <v>228</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>54</v>
@@ -5694,17 +5695,17 @@
         <v>42059</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="13" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E96" s="15" t="s">
         <v>229</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G96" s="13" t="s">
         <v>54</v>
@@ -5716,17 +5717,17 @@
         <v>42059</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="13" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E97" s="15" t="s">
         <v>229</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G97" s="13" t="s">
         <v>54</v>
@@ -5738,7 +5739,7 @@
         <v>42062</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>33</v>
@@ -5750,7 +5751,7 @@
         <v>231</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="G98" s="13" t="s">
         <v>25</v>
@@ -5762,17 +5763,17 @@
         <v>42079</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="13" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E99" s="15" t="s">
         <v>232</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G99" s="13" t="s">
         <v>46</v>
@@ -5784,7 +5785,7 @@
         <v>42086</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>33</v>
@@ -5796,7 +5797,7 @@
         <v>168</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="G100" s="13" t="s">
         <v>46</v>
@@ -5808,7 +5809,7 @@
         <v>42064</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>33</v>
@@ -5820,7 +5821,7 @@
         <v>234</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="G101" s="13" t="s">
         <v>46</v>
@@ -5832,19 +5833,19 @@
         <v>42083</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>235</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G102" s="13" t="s">
         <v>46</v>
@@ -5856,7 +5857,7 @@
         <v>42087</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>33</v>
@@ -5868,7 +5869,7 @@
         <v>237</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G103" s="13" t="s">
         <v>46</v>
@@ -5880,7 +5881,7 @@
         <v>42097</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>91</v>
@@ -5892,7 +5893,7 @@
         <v>239</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="G104" s="13" t="s">
         <v>8</v>
@@ -5904,7 +5905,7 @@
         <v>42019</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>33</v>
@@ -5916,7 +5917,7 @@
         <v>241</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G105" s="13" t="s">
         <v>54</v>
@@ -5928,7 +5929,7 @@
         <v>42027</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>242</v>
@@ -5940,7 +5941,7 @@
         <v>244</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="G106" s="13" t="s">
         <v>54</v>
@@ -5952,7 +5953,7 @@
         <v>42026</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>33</v>
@@ -5964,7 +5965,7 @@
         <v>246</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G107" s="13" t="s">
         <v>54</v>
@@ -5976,7 +5977,7 @@
         <v>42017</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="13" t="s">
@@ -5996,17 +5997,17 @@
         <v>42038</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="13" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>249</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="G109" s="13" t="s">
         <v>54</v>
@@ -6018,7 +6019,7 @@
         <v>42030</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="13" t="s">
@@ -6028,7 +6029,7 @@
         <v>251</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G110" s="13" t="s">
         <v>54</v>
@@ -6040,7 +6041,7 @@
         <v>42031</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>252</v>
@@ -6052,7 +6053,7 @@
         <v>254</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="G111" s="13" t="s">
         <v>54</v>
@@ -6064,7 +6065,7 @@
         <v>42046</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="C112" s="13" t="s">
         <v>255</v>
@@ -6076,7 +6077,7 @@
         <v>257</v>
       </c>
       <c r="F112" s="17" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G112" s="13" t="s">
         <v>54</v>
@@ -6088,7 +6089,7 @@
         <v>42031</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>258</v>
@@ -6111,7 +6112,7 @@
         <v>42044</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="13" t="s">
@@ -6121,7 +6122,7 @@
         <v>262</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="G114" s="13" t="s">
         <v>54</v>
@@ -6134,7 +6135,7 @@
         <v>42045</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="13" t="s">
@@ -6144,7 +6145,7 @@
         <v>264</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G115" s="13" t="s">
         <v>54</v>
@@ -6156,7 +6157,7 @@
         <v>42041</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>265</v>
@@ -6168,7 +6169,7 @@
         <v>266</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G116" s="13" t="s">
         <v>54</v>
@@ -6180,7 +6181,7 @@
         <v>42058</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>267</v>
@@ -6192,7 +6193,7 @@
         <v>269</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="G117" s="13" t="s">
         <v>54</v>
@@ -6204,7 +6205,7 @@
         <v>42048</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>270</v>
@@ -6216,7 +6217,7 @@
         <v>272</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G118" s="13" t="s">
         <v>54</v>
@@ -6228,7 +6229,7 @@
         <v>42048</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>273</v>
@@ -6240,7 +6241,7 @@
         <v>275</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="G119" s="13" t="s">
         <v>54</v>
@@ -6252,7 +6253,7 @@
         <v>42088</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>276</v>
@@ -6264,7 +6265,7 @@
         <v>278</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G120" s="7" t="s">
         <v>8</v>
@@ -6276,7 +6277,7 @@
         <v>42091</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>151</v>
@@ -6288,7 +6289,7 @@
         <v>280</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="G121" s="13" t="s">
         <v>50</v>
@@ -6300,7 +6301,7 @@
         <v>42087</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>204</v>
@@ -6312,7 +6313,7 @@
         <v>282</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G122" s="13" t="s">
         <v>46</v>
@@ -6324,7 +6325,7 @@
         <v>42087</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>283</v>
@@ -6336,7 +6337,7 @@
         <v>282</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G123" s="13" t="s">
         <v>50</v>
@@ -6348,7 +6349,7 @@
         <v>41723</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>258</v>
@@ -6360,7 +6361,7 @@
         <v>269</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="G124" s="13" t="s">
         <v>50</v>
@@ -6372,7 +6373,7 @@
         <v>42089</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="13" t="s">
@@ -6392,7 +6393,7 @@
         <v>42089</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>287</v>
@@ -6404,7 +6405,7 @@
         <v>289</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="G126" s="13" t="s">
         <v>46</v>
@@ -6416,7 +6417,7 @@
         <v>41977</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2" t="s">
@@ -6426,7 +6427,7 @@
         <v>291</v>
       </c>
       <c r="F127" s="20" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>54</v>
@@ -6438,19 +6439,19 @@
         <v>41982</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>292</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>54</v>
@@ -6462,7 +6463,7 @@
         <v>42009</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>293</v>
@@ -6474,7 +6475,7 @@
         <v>295</v>
       </c>
       <c r="F129" s="20" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>54</v>
@@ -6486,7 +6487,7 @@
         <v>42013</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>296</v>
@@ -6498,7 +6499,7 @@
         <v>298</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>54</v>
@@ -6510,7 +6511,7 @@
         <v>42027</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2" t="s">
@@ -6520,7 +6521,7 @@
         <v>53</v>
       </c>
       <c r="F131" s="20" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>54</v>
@@ -6532,17 +6533,17 @@
         <v>42038</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>249</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>54</v>
@@ -6554,7 +6555,7 @@
         <v>42030</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>73</v>
@@ -6566,7 +6567,7 @@
         <v>300</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>54</v>
@@ -6578,7 +6579,7 @@
         <v>42031</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>301</v>
@@ -6600,7 +6601,7 @@
         <v>42033</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>304</v>
@@ -6612,7 +6613,7 @@
         <v>306</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>54</v>
@@ -6624,7 +6625,7 @@
         <v>42027</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2" t="s">
@@ -6644,10 +6645,10 @@
         <v>42033</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>309</v>
@@ -6656,7 +6657,7 @@
         <v>310</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>54</v>
@@ -6668,7 +6669,7 @@
         <v>42034</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>36</v>
@@ -6680,7 +6681,7 @@
         <v>312</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>54</v>
@@ -6692,7 +6693,7 @@
         <v>42044</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2" t="s">
@@ -6700,7 +6701,7 @@
       </c>
       <c r="E139" s="3"/>
       <c r="F139" s="6" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>54</v>
@@ -6712,7 +6713,7 @@
         <v>42038</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>314</v>
@@ -6724,7 +6725,7 @@
         <v>316</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>317</v>
@@ -6736,7 +6737,7 @@
         <v>42058</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C141" s="13"/>
       <c r="D141" s="13" t="s">
@@ -6746,7 +6747,7 @@
         <v>319</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="G141" s="13" t="s">
         <v>54</v>
@@ -6758,7 +6759,7 @@
         <v>42036</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C142" s="13" t="s">
         <v>320</v>
@@ -6770,7 +6771,7 @@
         <v>322</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G142" s="13" t="s">
         <v>54</v>
@@ -6782,13 +6783,13 @@
         <v>42058</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C143" s="13" t="s">
         <v>204</v>
       </c>
       <c r="D143" s="13" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>323</v>
@@ -6804,7 +6805,7 @@
         <v>42048</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>151</v>
@@ -6816,7 +6817,7 @@
         <v>325</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="G144" s="13" t="s">
         <v>54</v>
@@ -6828,7 +6829,7 @@
         <v>42048</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>326</v>
@@ -6840,7 +6841,7 @@
         <v>328</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="G145" s="13" t="s">
         <v>54</v>
@@ -6852,7 +6853,7 @@
         <v>42083</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="13" t="s">
@@ -6862,7 +6863,7 @@
         <v>330</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="G146" s="13" t="s">
         <v>331</v>
@@ -6874,7 +6875,7 @@
         <v>42086</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>332</v>
@@ -6886,7 +6887,7 @@
         <v>334</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G147" s="13" t="s">
         <v>46</v>
@@ -6898,19 +6899,19 @@
         <v>42080</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>332</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>335</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="G148" s="13" t="s">
         <v>46</v>
@@ -6922,7 +6923,7 @@
         <v>42068</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>336</v>
@@ -6934,7 +6935,7 @@
         <v>338</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G149" s="13" t="s">
         <v>46</v>
@@ -6946,7 +6947,7 @@
         <v>42083</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2" t="s">
@@ -6956,7 +6957,7 @@
         <v>340</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="G150" s="13" t="s">
         <v>46</v>
@@ -6968,7 +6969,7 @@
         <v>42090</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>341</v>
@@ -6980,7 +6981,7 @@
         <v>343</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="G151" s="13" t="s">
         <v>46</v>
@@ -6992,7 +6993,7 @@
         <v>42093</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>344</v>
@@ -7014,7 +7015,7 @@
         <v>41981</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>348</v>
@@ -7026,7 +7027,7 @@
         <v>349</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>54</v>
@@ -7038,7 +7039,7 @@
         <v>42058</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>36</v>
@@ -7050,7 +7051,7 @@
         <v>351</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>54</v>
@@ -7214,9 +7215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection sqref="A1:M119"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7238,17 +7237,17 @@
         <v>42071</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
       <c r="I1" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J1" s="30"/>
       <c r="K1" s="29"/>
@@ -7263,17 +7262,17 @@
         <v>42071</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
       <c r="H2" s="29"/>
       <c r="I2" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J2" s="30"/>
       <c r="K2" s="29"/>
@@ -7288,17 +7287,17 @@
         <v>42071</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
       <c r="I3" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J3" s="30"/>
       <c r="K3" s="29"/>
@@ -7313,19 +7312,19 @@
         <v>42104</v>
       </c>
       <c r="C4" s="28" t="s">
+        <v>655</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>661</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>667</v>
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="28" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="29"/>
@@ -7340,17 +7339,17 @@
         <v>42104</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J5" s="30"/>
       <c r="K5" s="29"/>
@@ -7384,25 +7383,25 @@
         <v>42109</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="28" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="28" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>2</v>
       </c>
       <c r="J7" s="30"/>
       <c r="K7" s="28" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="L7" s="27">
         <v>42079</v>
@@ -7419,14 +7418,14 @@
         <v>42109</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="28" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -7435,7 +7434,7 @@
       </c>
       <c r="J8" s="30"/>
       <c r="K8" s="28" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="L8" s="27">
         <v>42079</v>
@@ -7452,17 +7451,17 @@
         <v>42088</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
       <c r="I9" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J9" s="30"/>
       <c r="K9" s="29"/>
@@ -7477,19 +7476,19 @@
         <v>42090</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
       <c r="I10" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J10" s="30"/>
       <c r="K10" s="29"/>
@@ -7504,19 +7503,19 @@
         <v>42104</v>
       </c>
       <c r="C11" s="28" t="s">
+        <v>670</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>675</v>
+      </c>
+      <c r="E11" s="28" t="s">
         <v>676</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>681</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>682</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J11" s="30"/>
       <c r="K11" s="29"/>
@@ -7531,19 +7530,19 @@
         <v>42104</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J12" s="30"/>
       <c r="K12" s="29"/>
@@ -7558,19 +7557,19 @@
         <v>42104</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J13" s="30"/>
       <c r="K13" s="29"/>
@@ -7585,19 +7584,19 @@
         <v>42104</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J14" s="30"/>
       <c r="K14" s="29"/>
@@ -7612,19 +7611,19 @@
         <v>42104</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J15" s="30"/>
       <c r="K15" s="29"/>
@@ -7639,10 +7638,10 @@
         <v>42123</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
@@ -7664,10 +7663,10 @@
         <v>42062</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="E17" s="28" t="s">
         <v>33</v>
@@ -7676,7 +7675,7 @@
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
       <c r="I17" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J17" s="30"/>
       <c r="K17" s="29"/>
@@ -7691,10 +7690,10 @@
         <v>42068</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>326</v>
@@ -7703,7 +7702,7 @@
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J18" s="30"/>
       <c r="K18" s="29"/>
@@ -7718,17 +7717,17 @@
         <v>42068</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
       <c r="I19" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J19" s="30"/>
       <c r="K19" s="29"/>
@@ -7743,19 +7742,19 @@
         <v>42068</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
       <c r="I20" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J20" s="30"/>
       <c r="K20" s="29"/>
@@ -7770,19 +7769,19 @@
         <v>42068</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="28" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
       <c r="I21" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J21" s="30"/>
       <c r="K21" s="29"/>
@@ -7797,19 +7796,19 @@
         <v>42068</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
       <c r="I22" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J22" s="30"/>
       <c r="K22" s="29"/>
@@ -7824,19 +7823,19 @@
         <v>42074</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
       <c r="I23" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J23" s="30"/>
       <c r="K23" s="29"/>
@@ -7851,21 +7850,21 @@
         <v>42074</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
       <c r="I24" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J24" s="30"/>
       <c r="K24" s="29"/>
@@ -7880,19 +7879,19 @@
         <v>42074</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
       <c r="I25" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J25" s="30"/>
       <c r="K25" s="29"/>
@@ -7907,21 +7906,21 @@
         <v>42074</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
       <c r="I26" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J26" s="30"/>
       <c r="K26" s="29"/>
@@ -7936,19 +7935,19 @@
         <v>42090</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
       <c r="I27" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J27" s="30"/>
       <c r="K27" s="29"/>
@@ -7963,19 +7962,19 @@
         <v>42104</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
       <c r="I28" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J28" s="30"/>
       <c r="K28" s="29"/>
@@ -7990,19 +7989,19 @@
         <v>42104</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
       <c r="I29" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J29" s="30"/>
       <c r="K29" s="29"/>
@@ -8017,19 +8016,19 @@
         <v>42104</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="E30" s="29"/>
       <c r="F30" s="28" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
       <c r="I30" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J30" s="30"/>
       <c r="K30" s="29"/>
@@ -8044,14 +8043,14 @@
         <v>42113</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="E31" s="29"/>
       <c r="F31" s="28" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
@@ -8060,7 +8059,7 @@
       </c>
       <c r="J31" s="30"/>
       <c r="K31" s="28" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="L31" s="27">
         <v>42083</v>
@@ -8077,10 +8076,10 @@
         <v>42071</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="E32" s="29"/>
       <c r="F32" s="29"/>
@@ -8100,17 +8099,17 @@
         <v>42071</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
       <c r="I33" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J33" s="30"/>
       <c r="K33" s="29"/>
@@ -8125,17 +8124,17 @@
         <v>42071</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
       <c r="I34" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J34" s="30"/>
       <c r="K34" s="29"/>
@@ -8150,17 +8149,17 @@
         <v>42074</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="E35" s="29"/>
       <c r="F35" s="29"/>
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
       <c r="I35" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J35" s="30"/>
       <c r="K35" s="29"/>
@@ -8175,17 +8174,17 @@
         <v>42088</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
       <c r="I36" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J36" s="30"/>
       <c r="K36" s="29"/>
@@ -8200,19 +8199,19 @@
         <v>42104</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
       <c r="I37" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J37" s="30"/>
       <c r="K37" s="29"/>
@@ -8227,19 +8226,19 @@
         <v>42104</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
       <c r="I38" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J38" s="30"/>
       <c r="K38" s="29"/>
@@ -8254,19 +8253,19 @@
         <v>42104</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
       <c r="I39" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J39" s="30"/>
       <c r="K39" s="29"/>
@@ -8281,19 +8280,19 @@
         <v>42104</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
       <c r="I40" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J40" s="30"/>
       <c r="K40" s="29"/>
@@ -8308,19 +8307,19 @@
         <v>42104</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F41" s="29"/>
       <c r="G41" s="29"/>
       <c r="H41" s="29"/>
       <c r="I41" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J41" s="30"/>
       <c r="K41" s="29"/>
@@ -8334,7 +8333,7 @@
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="28" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="29"/>
@@ -8355,7 +8354,7 @@
       </c>
       <c r="C43" s="29"/>
       <c r="D43" s="28" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="E43" s="29"/>
       <c r="F43" s="29"/>
@@ -8376,7 +8375,7 @@
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="28" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="E44" s="29"/>
       <c r="F44" s="29"/>
@@ -8397,7 +8396,7 @@
       </c>
       <c r="C45" s="29"/>
       <c r="D45" s="28" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="E45" s="29"/>
       <c r="F45" s="29"/>
@@ -8418,7 +8417,7 @@
       </c>
       <c r="C46" s="29"/>
       <c r="D46" s="28" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="E46" s="29"/>
       <c r="F46" s="29"/>
@@ -8440,10 +8439,10 @@
         <v>42076</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="E47" s="29"/>
       <c r="F47" s="29"/>
@@ -8463,17 +8462,17 @@
         <v>42130</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="E48" s="29"/>
       <c r="F48" s="29"/>
       <c r="G48" s="29"/>
       <c r="H48" s="29"/>
       <c r="I48" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J48" s="30"/>
       <c r="K48" s="29"/>
@@ -8488,10 +8487,10 @@
         <v>42130</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="E49" s="29"/>
       <c r="F49" s="29"/>
@@ -8511,17 +8510,17 @@
         <v>42130</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="E50" s="29"/>
       <c r="F50" s="29"/>
       <c r="G50" s="29"/>
       <c r="H50" s="29"/>
       <c r="I50" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J50" s="30"/>
       <c r="K50" s="29"/>
@@ -8536,17 +8535,17 @@
         <v>42039</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="E51" s="29"/>
       <c r="F51" s="29"/>
       <c r="G51" s="29"/>
       <c r="H51" s="29"/>
       <c r="I51" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J51" s="30"/>
       <c r="K51" s="29"/>
@@ -8561,10 +8560,10 @@
         <v>42070</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="E52" s="29"/>
       <c r="F52" s="29"/>
@@ -8586,17 +8585,17 @@
         <v>42074</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="E53" s="29"/>
       <c r="F53" s="29"/>
       <c r="G53" s="29"/>
       <c r="H53" s="29"/>
       <c r="I53" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J53" s="30"/>
       <c r="K53" s="29"/>
@@ -8611,10 +8610,10 @@
         <v>42078</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="E54" s="29"/>
       <c r="F54" s="29"/>
@@ -8636,19 +8635,19 @@
         <v>42104</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F55" s="29"/>
       <c r="G55" s="29"/>
       <c r="H55" s="29"/>
       <c r="I55" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J55" s="30"/>
       <c r="K55" s="29"/>
@@ -8663,10 +8662,10 @@
         <v>42113</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="E56" s="29"/>
       <c r="F56" s="29"/>
@@ -8686,7 +8685,7 @@
         <v>29</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D57" s="29"/>
       <c r="E57" s="29"/>
@@ -8707,13 +8706,13 @@
         <v>42108</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="F58" s="29"/>
       <c r="G58" s="29"/>
@@ -8734,13 +8733,13 @@
         <v>42124</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="F59" s="29"/>
       <c r="G59" s="29"/>
@@ -8761,10 +8760,10 @@
         <v>42068</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="E60" s="28" t="s">
         <v>109</v>
@@ -8788,10 +8787,10 @@
         <v>42070</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="E61" s="29"/>
       <c r="F61" s="29"/>
@@ -8813,17 +8812,17 @@
         <v>42071</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="E62" s="29"/>
       <c r="F62" s="29"/>
       <c r="G62" s="29"/>
       <c r="H62" s="29"/>
       <c r="I62" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J62" s="30"/>
       <c r="K62" s="29"/>
@@ -8838,19 +8837,19 @@
         <v>42042</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="E63" s="29"/>
       <c r="F63" s="28" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="G63" s="29"/>
       <c r="H63" s="29"/>
       <c r="I63" s="28" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="J63" s="31"/>
       <c r="K63" s="29"/>
@@ -8865,10 +8864,10 @@
         <v>42062</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="E64" s="29"/>
       <c r="F64" s="28" t="s">
@@ -8877,7 +8876,7 @@
       <c r="G64" s="29"/>
       <c r="H64" s="29"/>
       <c r="I64" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J64" s="31"/>
       <c r="K64" s="29"/>
@@ -8892,13 +8891,13 @@
         <v>42062</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="F65" s="28" t="s">
         <v>33</v>
@@ -8906,7 +8905,7 @@
       <c r="G65" s="29"/>
       <c r="H65" s="29"/>
       <c r="I65" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J65" s="31"/>
       <c r="K65" s="29"/>
@@ -8921,10 +8920,10 @@
         <v>42062</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="E66" s="29"/>
       <c r="F66" s="28" t="s">
@@ -8933,7 +8932,7 @@
       <c r="G66" s="29"/>
       <c r="H66" s="29"/>
       <c r="I66" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J66" s="31"/>
       <c r="K66" s="29"/>
@@ -8948,19 +8947,19 @@
         <v>42062</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="E67" s="29"/>
       <c r="F67" s="28" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="G67" s="32"/>
       <c r="H67" s="29"/>
       <c r="I67" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J67" s="31"/>
       <c r="K67" s="29"/>
@@ -8975,13 +8974,13 @@
         <v>42062</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="F68" s="28" t="s">
         <v>33</v>
@@ -8989,7 +8988,7 @@
       <c r="G68" s="29"/>
       <c r="H68" s="29"/>
       <c r="I68" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J68" s="31"/>
       <c r="K68" s="29"/>
@@ -9002,10 +9001,10 @@
       </c>
       <c r="B69" s="29"/>
       <c r="C69" s="28" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="E69" s="29"/>
       <c r="F69" s="28" t="s">
@@ -9014,7 +9013,7 @@
       <c r="G69" s="29"/>
       <c r="H69" s="29"/>
       <c r="I69" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J69" s="31"/>
       <c r="K69" s="29"/>
@@ -9029,13 +9028,13 @@
         <v>42062</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="F70" s="28" t="s">
         <v>33</v>
@@ -9043,7 +9042,7 @@
       <c r="G70" s="29"/>
       <c r="H70" s="29"/>
       <c r="I70" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J70" s="31"/>
       <c r="K70" s="29"/>
@@ -9058,13 +9057,13 @@
         <v>42062</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="F71" s="28" t="s">
         <v>33</v>
@@ -9072,7 +9071,7 @@
       <c r="G71" s="29"/>
       <c r="H71" s="29"/>
       <c r="I71" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J71" s="31"/>
       <c r="K71" s="29"/>
@@ -9087,10 +9086,10 @@
         <v>42062</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="E72" s="29"/>
       <c r="F72" s="28" t="s">
@@ -9099,7 +9098,7 @@
       <c r="G72" s="29"/>
       <c r="H72" s="29"/>
       <c r="I72" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J72" s="31"/>
       <c r="K72" s="29"/>
@@ -9114,10 +9113,10 @@
         <v>42062</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="E73" s="29"/>
       <c r="F73" s="28" t="s">
@@ -9126,7 +9125,7 @@
       <c r="G73" s="29"/>
       <c r="H73" s="29"/>
       <c r="I73" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J73" s="31"/>
       <c r="K73" s="29"/>
@@ -9141,17 +9140,17 @@
         <v>42068</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="E74" s="29"/>
       <c r="F74" s="29"/>
       <c r="G74" s="29"/>
       <c r="H74" s="29"/>
       <c r="I74" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J74" s="31"/>
       <c r="K74" s="29"/>
@@ -9166,17 +9165,17 @@
         <v>42068</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="E75" s="29"/>
       <c r="F75" s="29"/>
       <c r="G75" s="29"/>
       <c r="H75" s="29"/>
       <c r="I75" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J75" s="31"/>
       <c r="K75" s="29"/>
@@ -9191,17 +9190,17 @@
         <v>42068</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="E76" s="29"/>
       <c r="F76" s="29"/>
       <c r="G76" s="29"/>
       <c r="H76" s="29"/>
       <c r="I76" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J76" s="31"/>
       <c r="K76" s="29"/>
@@ -9216,17 +9215,17 @@
         <v>42038</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="E77" s="29"/>
       <c r="F77" s="29"/>
       <c r="G77" s="29"/>
       <c r="H77" s="29"/>
       <c r="I77" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J77" s="31"/>
       <c r="K77" s="29"/>
@@ -9238,20 +9237,20 @@
         <v>42038</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="E78" s="29"/>
       <c r="F78" s="29"/>
       <c r="G78" s="29"/>
       <c r="H78" s="29"/>
       <c r="I78" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J78" s="31"/>
       <c r="K78" s="29"/>
@@ -9266,14 +9265,14 @@
         <v>42054</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="E79" s="29"/>
       <c r="F79" s="28" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="G79" s="29"/>
       <c r="H79" s="29"/>
@@ -9293,14 +9292,14 @@
         <v>42039</v>
       </c>
       <c r="C80" s="28" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="E80" s="29"/>
       <c r="F80" s="28" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="G80" s="29"/>
       <c r="H80" s="29"/>
@@ -9320,10 +9319,10 @@
         <v>42070</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -9345,16 +9344,16 @@
         <v>42040</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="E82" s="28" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="F82" s="28" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="G82" s="29"/>
       <c r="H82" s="29"/>
@@ -9374,19 +9373,19 @@
         <v>42071</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="E83" s="29"/>
       <c r="F83" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G83" s="29"/>
       <c r="H83" s="29"/>
       <c r="I83" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J83" s="30"/>
       <c r="K83" s="29"/>
@@ -9401,21 +9400,21 @@
         <v>42074</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="E84" s="28" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="F84" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G84" s="29"/>
       <c r="H84" s="29"/>
       <c r="I84" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J84" s="30"/>
       <c r="K84" s="29"/>
@@ -9430,10 +9429,10 @@
         <v>42074</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="E85" s="29"/>
       <c r="F85" s="29"/>
@@ -9455,10 +9454,10 @@
         <v>42074</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="E86" s="29"/>
       <c r="F86" s="29"/>
@@ -9482,14 +9481,14 @@
         <v>42088</v>
       </c>
       <c r="C87" s="28" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="E87" s="29"/>
       <c r="F87" s="28" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="G87" s="29"/>
       <c r="H87" s="29"/>
@@ -9507,19 +9506,19 @@
         <v>42090</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="E88" s="29"/>
       <c r="F88" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G88" s="29"/>
       <c r="H88" s="29"/>
       <c r="I88" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J88" s="30"/>
       <c r="K88" s="29"/>
@@ -9534,19 +9533,19 @@
         <v>42090</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="E89" s="29"/>
       <c r="F89" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G89" s="29"/>
       <c r="H89" s="29"/>
       <c r="I89" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J89" s="30"/>
       <c r="K89" s="29"/>
@@ -9561,19 +9560,19 @@
         <v>42090</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="E90" s="29"/>
       <c r="F90" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G90" s="29"/>
       <c r="H90" s="29"/>
       <c r="I90" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J90" s="30"/>
       <c r="K90" s="29"/>
@@ -9588,19 +9587,19 @@
         <v>42104</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="E91" s="29"/>
       <c r="F91" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G91" s="29"/>
       <c r="H91" s="29"/>
       <c r="I91" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J91" s="30"/>
       <c r="K91" s="29"/>
@@ -9615,21 +9614,21 @@
         <v>42104</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="E92" s="28" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="F92" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G92" s="29"/>
       <c r="H92" s="29"/>
       <c r="I92" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J92" s="30"/>
       <c r="K92" s="29"/>
@@ -9644,19 +9643,19 @@
         <v>42104</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="E93" s="29"/>
       <c r="F93" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G93" s="29"/>
       <c r="H93" s="29"/>
       <c r="I93" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J93" s="30"/>
       <c r="K93" s="29"/>
@@ -9671,21 +9670,21 @@
         <v>42104</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="E94" s="28" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="F94" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G94" s="29"/>
       <c r="H94" s="29"/>
       <c r="I94" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J94" s="30"/>
       <c r="K94" s="29"/>
@@ -9700,21 +9699,21 @@
         <v>42104</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="E95" s="28" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="F95" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G95" s="29"/>
       <c r="H95" s="29"/>
       <c r="I95" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J95" s="30"/>
       <c r="K95" s="29"/>
@@ -9729,21 +9728,21 @@
         <v>42104</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="E96" s="28" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="F96" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G96" s="29"/>
       <c r="H96" s="29"/>
       <c r="I96" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J96" s="30"/>
       <c r="K96" s="29"/>
@@ -9758,19 +9757,19 @@
         <v>42104</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="E97" s="29"/>
       <c r="F97" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G97" s="29"/>
       <c r="H97" s="29"/>
       <c r="I97" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J97" s="30"/>
       <c r="K97" s="29"/>
@@ -9785,23 +9784,23 @@
         <v>42104</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="E98" s="28" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="F98" s="28" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="G98" s="29"/>
       <c r="H98" s="34">
         <v>7027554145</v>
       </c>
       <c r="I98" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J98" s="30"/>
       <c r="K98" s="29"/>
@@ -9816,19 +9815,19 @@
         <v>42104</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="E99" s="29"/>
       <c r="F99" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G99" s="29"/>
       <c r="H99" s="29"/>
       <c r="I99" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J99" s="30"/>
       <c r="K99" s="29"/>
@@ -9843,10 +9842,10 @@
         <v>42054</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="E100" s="29"/>
       <c r="F100" s="28" t="s">
@@ -9868,17 +9867,17 @@
         <v>29</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="E101" s="29"/>
       <c r="F101" s="29"/>
       <c r="G101" s="29"/>
       <c r="H101" s="29"/>
       <c r="I101" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J101" s="30"/>
       <c r="K101" s="29"/>
@@ -9893,10 +9892,10 @@
         <v>42062</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="E102" s="28" t="s">
         <v>33</v>
@@ -9905,7 +9904,7 @@
       <c r="G102" s="29"/>
       <c r="H102" s="29"/>
       <c r="I102" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J102" s="30"/>
       <c r="K102" s="29"/>
@@ -9920,10 +9919,10 @@
         <v>42062</v>
       </c>
       <c r="C103" s="28" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="D103" s="28" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="E103" s="28" t="s">
         <v>33</v>
@@ -9932,10 +9931,10 @@
       <c r="G103" s="29"/>
       <c r="H103" s="29"/>
       <c r="I103" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J103" s="33" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="K103" s="29"/>
       <c r="L103" s="29"/>
@@ -9949,17 +9948,17 @@
         <v>42068</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="E104" s="29"/>
       <c r="F104" s="29"/>
       <c r="G104" s="29"/>
       <c r="H104" s="29"/>
       <c r="I104" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J104" s="30"/>
       <c r="K104" s="29"/>
@@ -9974,17 +9973,17 @@
         <v>42071</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="E105" s="29"/>
       <c r="F105" s="29"/>
       <c r="G105" s="29"/>
       <c r="H105" s="29"/>
       <c r="I105" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J105" s="30"/>
       <c r="K105" s="29"/>
@@ -9999,19 +9998,19 @@
         <v>42071</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="E106" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F106" s="29"/>
       <c r="G106" s="29"/>
       <c r="H106" s="29"/>
       <c r="I106" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J106" s="30"/>
       <c r="K106" s="29"/>
@@ -10026,19 +10025,19 @@
         <v>42071</v>
       </c>
       <c r="C107" s="28" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="D107" s="28" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="E107" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F107" s="29"/>
       <c r="G107" s="29"/>
       <c r="H107" s="29"/>
       <c r="I107" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J107" s="30"/>
       <c r="K107" s="29"/>
@@ -10053,17 +10052,17 @@
         <v>42071</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="D108" s="28" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="E108" s="29"/>
       <c r="F108" s="29"/>
       <c r="G108" s="29"/>
       <c r="H108" s="29"/>
       <c r="I108" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J108" s="30"/>
       <c r="K108" s="29"/>
@@ -10078,10 +10077,10 @@
         <v>42074</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="E109" s="28" t="s">
         <v>33</v>
@@ -10090,7 +10089,7 @@
       <c r="G109" s="29"/>
       <c r="H109" s="29"/>
       <c r="I109" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J109" s="30"/>
       <c r="K109" s="29"/>
@@ -10105,10 +10104,10 @@
         <v>42074</v>
       </c>
       <c r="C110" s="28" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="E110" s="29"/>
       <c r="F110" s="29"/>
@@ -10130,10 +10129,10 @@
         <v>42074</v>
       </c>
       <c r="C111" s="28" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="D111" s="28" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="E111" s="29"/>
       <c r="F111" s="29"/>
@@ -10155,10 +10154,10 @@
         <v>42074</v>
       </c>
       <c r="C112" s="28" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="E112" s="29"/>
       <c r="F112" s="29"/>
@@ -10180,19 +10179,19 @@
         <v>42090</v>
       </c>
       <c r="C113" s="28" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="E113" s="28" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="F113" s="29"/>
       <c r="G113" s="29"/>
       <c r="H113" s="29"/>
       <c r="I113" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J113" s="30"/>
       <c r="K113" s="29"/>
@@ -10207,19 +10206,19 @@
         <v>42090</v>
       </c>
       <c r="C114" s="28" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="E114" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F114" s="29"/>
       <c r="G114" s="29"/>
       <c r="H114" s="29"/>
       <c r="I114" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J114" s="30"/>
       <c r="K114" s="29"/>
@@ -10234,19 +10233,19 @@
         <v>42090</v>
       </c>
       <c r="C115" s="28" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="D115" s="28" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="E115" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F115" s="29"/>
       <c r="G115" s="29"/>
       <c r="H115" s="29"/>
       <c r="I115" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J115" s="30"/>
       <c r="K115" s="29"/>
@@ -10261,19 +10260,19 @@
         <v>42104</v>
       </c>
       <c r="C116" s="28" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="D116" s="28" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="E116" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F116" s="29"/>
       <c r="G116" s="29"/>
       <c r="H116" s="29"/>
       <c r="I116" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J116" s="30"/>
       <c r="K116" s="29"/>
@@ -10288,21 +10287,21 @@
         <v>29</v>
       </c>
       <c r="C117" s="28" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="E117" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F117" s="29"/>
       <c r="G117" s="28" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="H117" s="29"/>
       <c r="I117" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J117" s="30"/>
       <c r="K117" s="29"/>
@@ -10317,19 +10316,19 @@
         <v>42104</v>
       </c>
       <c r="C118" s="28" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="E118" s="28" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="F118" s="29"/>
       <c r="G118" s="29"/>
       <c r="H118" s="29"/>
       <c r="I118" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J118" s="30"/>
       <c r="K118" s="29"/>
@@ -10344,17 +10343,17 @@
         <v>42104</v>
       </c>
       <c r="C119" s="37" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="D119" s="37" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="E119" s="38"/>
       <c r="F119" s="38"/>
       <c r="G119" s="38"/>
       <c r="H119" s="38"/>
       <c r="I119" s="37" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J119" s="31"/>
       <c r="K119" s="38"/>
@@ -10370,7 +10369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
@@ -10396,14 +10395,14 @@
         <v>42119</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="28" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
@@ -10412,7 +10411,7 @@
       </c>
       <c r="J1" s="30"/>
       <c r="K1" s="28" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="L1" s="27">
         <v>42087</v>
@@ -10433,21 +10432,21 @@
         <v>42068</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>33</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="G2" s="29"/>
       <c r="H2" s="29"/>
       <c r="I2" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J2" s="30"/>
       <c r="K2" s="29"/>
@@ -10456,7 +10455,7 @@
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
       <c r="P2" s="28" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="Q2" s="43">
         <v>42058</v>
@@ -10470,16 +10469,16 @@
         <v>42352</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
@@ -10493,7 +10492,7 @@
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="28" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="Q3" s="43">
         <v>42058</v>
@@ -10507,13 +10506,13 @@
         <v>42088</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
@@ -10528,7 +10527,7 @@
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
       <c r="P4" s="28" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="Q4" s="43">
         <v>42058</v>
@@ -10542,10 +10541,10 @@
         <v>42062</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>33</v>
@@ -10554,7 +10553,7 @@
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J5" s="30"/>
       <c r="K5" s="29"/>
@@ -10562,7 +10561,7 @@
       <c r="M5" s="29"/>
       <c r="N5" s="29"/>
       <c r="O5" s="28" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="P5" s="27">
         <v>42058</v>
@@ -10577,10 +10576,10 @@
         <v>42054</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>326</v>
@@ -10593,7 +10592,7 @@
       </c>
       <c r="J6" s="30"/>
       <c r="K6" s="28" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="L6" s="27">
         <v>42024</v>
@@ -10614,13 +10613,13 @@
         <v>42067</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
@@ -10630,7 +10629,7 @@
       </c>
       <c r="J7" s="30"/>
       <c r="K7" s="28" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="L7" s="27">
         <v>42038</v>
@@ -10651,10 +10650,10 @@
         <v>42082</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
@@ -10665,7 +10664,7 @@
       </c>
       <c r="J8" s="30"/>
       <c r="K8" s="28" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="L8" s="27">
         <v>42053</v>
@@ -10686,10 +10685,10 @@
         <v>42078</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>51</v>
@@ -10702,7 +10701,7 @@
       </c>
       <c r="J9" s="30"/>
       <c r="K9" s="28" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="L9" s="27">
         <v>42048</v>
@@ -10723,19 +10722,19 @@
         <v>42104</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
       <c r="I10" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J10" s="30"/>
       <c r="K10" s="28" t="s">
@@ -10758,7 +10757,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
@@ -10789,10 +10788,10 @@
         <v>42110</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="E12" s="28" t="s">
         <v>33</v>
@@ -10805,7 +10804,7 @@
       </c>
       <c r="J12" s="30"/>
       <c r="K12" s="28" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="L12" s="27">
         <v>42080</v>
@@ -10826,10 +10825,10 @@
         <v>42123</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="E13" s="28" t="s">
         <v>332</v>
@@ -10842,7 +10841,7 @@
       </c>
       <c r="J13" s="30"/>
       <c r="K13" s="28" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="L13" s="27">
         <v>42093</v>
@@ -10863,13 +10862,13 @@
         <v>42035</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="F14" s="28" t="s">
         <v>36</v>
@@ -10881,7 +10880,7 @@
       </c>
       <c r="J14" s="31"/>
       <c r="K14" s="28" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="L14" s="27">
         <v>42012</v>
@@ -10902,13 +10901,13 @@
         <v>41950</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="F15" s="28" t="s">
         <v>36</v>
@@ -10922,7 +10921,7 @@
       </c>
       <c r="J15" s="31"/>
       <c r="K15" s="28" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="L15" s="27">
         <v>41960</v>
@@ -10943,10 +10942,10 @@
         <v>42062</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="28" t="s">
@@ -10955,14 +10954,14 @@
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J16" s="31"/>
       <c r="K16" s="29"/>
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
       <c r="N16" s="28" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="O16" s="27">
         <v>42058</v>
@@ -10978,10 +10977,10 @@
         <v>42062</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="28" t="s">
@@ -10990,14 +10989,14 @@
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
       <c r="I17" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J17" s="31"/>
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
       <c r="N17" s="28" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="O17" s="27">
         <v>42058</v>
@@ -11013,10 +11012,10 @@
         <v>42062</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="28" t="s">
@@ -11025,14 +11024,14 @@
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J18" s="31"/>
       <c r="K18" s="29"/>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
       <c r="N18" s="28" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="O18" s="27">
         <v>42058</v>
@@ -11048,25 +11047,25 @@
         <v>42068</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="28" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J19" s="31"/>
       <c r="K19" s="28" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="L19" s="27">
         <v>42053</v>
@@ -11087,10 +11086,10 @@
         <v>42036</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="28" t="s">
@@ -11104,7 +11103,7 @@
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
       <c r="N20" s="28" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="O20" s="27">
         <v>42058</v>
@@ -11120,13 +11119,13 @@
         <v>42063</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
@@ -11136,7 +11135,7 @@
       </c>
       <c r="J21" s="30"/>
       <c r="K21" s="28" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="L21" s="27">
         <v>42033</v>
@@ -11157,25 +11156,25 @@
         <v>42062</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
       <c r="H22" s="28" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="I22" s="28" t="s">
         <v>2</v>
       </c>
       <c r="J22" s="30"/>
       <c r="K22" s="28" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="L22" s="27">
         <v>42038</v>
@@ -11196,13 +11195,13 @@
         <v>42054</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
@@ -11214,7 +11213,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="L23" s="27">
         <v>42044</v>
@@ -11235,26 +11234,26 @@
         <v>42074</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="E24" s="29"/>
       <c r="F24" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
       <c r="I24" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J24" s="30"/>
       <c r="K24" s="29"/>
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
       <c r="N24" s="28" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="O24" s="27">
         <v>42089</v>
@@ -11270,25 +11269,25 @@
         <v>42074</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
       <c r="H25" s="28" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="I25" s="28" t="s">
         <v>2</v>
       </c>
       <c r="J25" s="30"/>
       <c r="K25" s="28" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="L25" s="27">
         <v>42044</v>
@@ -11309,14 +11308,14 @@
         <v>42064</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="28" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
@@ -11328,7 +11327,7 @@
       <c r="L26" s="29"/>
       <c r="M26" s="29"/>
       <c r="N26" s="28" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="O26" s="27">
         <v>42058</v>
@@ -11344,10 +11343,10 @@
         <v>41987</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="28" t="s">
@@ -11363,7 +11362,7 @@
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
       <c r="N27" s="28" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="O27" s="27">
         <v>42058</v>
@@ -11379,26 +11378,26 @@
         <v>42090</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
       <c r="I28" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J28" s="30"/>
       <c r="K28" s="29"/>
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
       <c r="N28" s="28" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="O28" s="27">
         <v>42089</v>
@@ -11414,21 +11413,21 @@
         <v>42090</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
       <c r="I29" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J29" s="30"/>
       <c r="K29" s="29"/>
@@ -11449,19 +11448,19 @@
         <v>42104</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="E30" s="29"/>
       <c r="F30" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
       <c r="I30" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J30" s="30"/>
       <c r="K30" s="29"/>
@@ -11482,21 +11481,21 @@
         <v>42104</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
       <c r="I31" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J31" s="30"/>
       <c r="K31" s="29"/>
@@ -11517,13 +11516,13 @@
         <v>42057</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="F32" s="28" t="s">
         <v>33</v>
@@ -11552,10 +11551,10 @@
         <v>42067</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="28" t="s">
@@ -11585,13 +11584,13 @@
         <v>42119</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
@@ -11601,7 +11600,7 @@
       </c>
       <c r="J34" s="30"/>
       <c r="K34" s="28" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="L34" s="27">
         <v>42081</v>
@@ -11622,10 +11621,10 @@
         <v>42062</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="E35" s="28" t="s">
         <v>33</v>
@@ -11634,14 +11633,14 @@
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
       <c r="I35" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J35" s="30"/>
       <c r="K35" s="29"/>
       <c r="L35" s="29"/>
       <c r="M35" s="29"/>
       <c r="N35" s="28" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="O35" s="27">
         <v>42058</v>
@@ -11657,10 +11656,10 @@
         <v>42062</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="E36" s="28" t="s">
         <v>33</v>
@@ -11669,14 +11668,14 @@
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
       <c r="I36" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J36" s="30"/>
       <c r="K36" s="29"/>
       <c r="L36" s="29"/>
       <c r="M36" s="29"/>
       <c r="N36" s="28" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="O36" s="27">
         <v>42060</v>
@@ -11692,10 +11691,10 @@
         <v>42062</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="E37" s="28" t="s">
         <v>33</v>
@@ -11704,14 +11703,14 @@
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
       <c r="I37" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J37" s="30"/>
       <c r="K37" s="29"/>
       <c r="L37" s="29"/>
       <c r="M37" s="29"/>
       <c r="N37" s="28" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="O37" s="27">
         <v>42060</v>
@@ -11727,10 +11726,10 @@
         <v>42068</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="E38" s="28" t="s">
         <v>33</v>
@@ -11739,14 +11738,14 @@
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
       <c r="I38" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J38" s="30"/>
       <c r="K38" s="29"/>
       <c r="L38" s="29"/>
       <c r="M38" s="29"/>
       <c r="N38" s="28" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="O38" s="27">
         <v>42060</v>
@@ -11762,26 +11761,26 @@
         <v>42071</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
       <c r="I39" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J39" s="30"/>
       <c r="K39" s="29"/>
       <c r="L39" s="29"/>
       <c r="M39" s="29"/>
       <c r="N39" s="28" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="O39" s="27">
         <v>42058</v>
@@ -11797,10 +11796,10 @@
         <v>42074</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="29"/>
@@ -11814,7 +11813,7 @@
       <c r="L40" s="29"/>
       <c r="M40" s="29"/>
       <c r="N40" s="28" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="O40" s="27">
         <v>42089</v>
@@ -11830,13 +11829,13 @@
         <v>42060</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F41" s="29"/>
       <c r="G41" s="29"/>
@@ -11851,7 +11850,7 @@
       <c r="N41" s="29"/>
       <c r="O41" s="29"/>
       <c r="P41" s="28" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="Q41" s="43">
         <v>42058</v>
@@ -11865,26 +11864,26 @@
         <v>42090</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
       <c r="H42" s="29"/>
       <c r="I42" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J42" s="30"/>
       <c r="K42" s="29"/>
       <c r="L42" s="29"/>
       <c r="M42" s="29"/>
       <c r="N42" s="28" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="O42" s="27">
         <v>42089</v>
@@ -11900,26 +11899,26 @@
         <v>42090</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="F43" s="29"/>
       <c r="G43" s="29"/>
       <c r="H43" s="29"/>
       <c r="I43" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J43" s="30"/>
       <c r="K43" s="29"/>
       <c r="L43" s="29"/>
       <c r="M43" s="29"/>
       <c r="N43" s="28" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="O43" s="27">
         <v>42089</v>
@@ -11935,23 +11934,23 @@
         <v>42104</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F44" s="29"/>
       <c r="G44" s="29"/>
       <c r="H44" s="29"/>
       <c r="I44" s="28" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J44" s="30"/>
       <c r="K44" s="28" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="L44" s="27">
         <v>42080</v>
@@ -11972,10 +11971,10 @@
         <v>42082</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="D45" s="37" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>

--- a/LostAndFound/LostAndFound/Resources/LostAndFoundDatabase.xlsx
+++ b/LostAndFound/LostAndFound/Resources/LostAndFoundDatabase.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LostReports" sheetId="1" r:id="rId1"/>
     <sheet name="FoundItems" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Carlee Brady - Personal View" guid="{765DC815-3A46-468E-A0A4-A4CD88DA39AB}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="2"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2596,6 +2599,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FBE3CFF5-3742-40C7-B5FA-FBEB53BC459A}">
+  <header guid="{FBE3CFF5-3742-40C7-B5FA-FBEB53BC459A}" dateTime="2015-04-16T16:42:54" maxSheetId="3" userName="Carlee Brady" r:id="rId1">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2863,7 +2885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6300,150 +6322,157 @@
       <dataRef ref="B2:C2" sheet="LostReports"/>
     </dataRefs>
   </dataConsolidate>
+  <customSheetViews>
+    <customSheetView guid="{765DC815-3A46-468E-A0A4-A4CD88DA39AB}" topLeftCell="C11">
+      <selection activeCell="A2" sqref="A2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <hyperlinks>
-    <hyperlink ref="F154" r:id="rId1" display="pixiedustpainter@gmail.com"/>
-    <hyperlink ref="F153" r:id="rId2" display="rollins_56@outlook.com"/>
-    <hyperlink ref="F151" r:id="rId3" display="yamanemisty@gmail.com"/>
-    <hyperlink ref="F150" r:id="rId4" display="kapcsosshawn@gmail.com"/>
-    <hyperlink ref="F149" r:id="rId5" display="garycrowton@suu.edu"/>
-    <hyperlink ref="F148" r:id="rId6" display="christopheranderson8@gmail.com"/>
-    <hyperlink ref="F147" r:id="rId7" display="katie_knorr_01@outlook.com"/>
-    <hyperlink ref="F146" r:id="rId8" display="Rachelcable96@gmail.com"/>
-    <hyperlink ref="F145" r:id="rId9" display="tylerdavidsmith95@gmail.com"/>
-    <hyperlink ref="F144" r:id="rId10" display="scconder@gmail.com"/>
-    <hyperlink ref="F142" r:id="rId11" display="LLL_erika@yahoo.com"/>
-    <hyperlink ref="F141" r:id="rId12" display="robbiesweeten@gmail.com"/>
-    <hyperlink ref="F140" r:id="rId13" display="rudiaheddings@suu.edu"/>
-    <hyperlink ref="F139" r:id="rId14" display="austinbruckner@suumail.net"/>
-    <hyperlink ref="F138" r:id="rId15" display="diegogirl88@yahoo.com"/>
-    <hyperlink ref="F137" r:id="rId16" display="caitlin.g.hanson@gmail.com"/>
-    <hyperlink ref="F135" r:id="rId17" display="drdev4@yahoo.com"/>
-    <hyperlink ref="F133" r:id="rId18" display="knordby.22@gmail.com"/>
-    <hyperlink ref="F132" r:id="rId19" display="tobiasanderson23@gmail.com"/>
-    <hyperlink ref="F131" r:id="rId20" display="mariahloveless@gmail.com"/>
-    <hyperlink ref="F130" r:id="rId21" display="brnin8or@gmail.com"/>
-    <hyperlink ref="F129" r:id="rId22" display="nickatkin516@gmail.com"/>
-    <hyperlink ref="F128" r:id="rId23" display="zenovia_20@yahoo.com"/>
-    <hyperlink ref="F127" r:id="rId24" display="mkleighann@gmail.com"/>
-    <hyperlink ref="F126" r:id="rId25" display="austin.cozzens@gmail.com"/>
-    <hyperlink ref="F124" r:id="rId26" display="jeramiahmatsler@suumail.net"/>
-    <hyperlink ref="F123" r:id="rId27" display="jackiejvarner@gmail.com"/>
-    <hyperlink ref="F122" r:id="rId28" display="jackiejvarner@gmail.com"/>
-    <hyperlink ref="F121" r:id="rId29" display="sfallentine@gmail.com"/>
-    <hyperlink ref="F120" r:id="rId30" display="angie.lambeth@ironmail.org"/>
-    <hyperlink ref="F119" r:id="rId31" display="ahirtushar94@gmail.com"/>
-    <hyperlink ref="F118" r:id="rId32" display="tehhoods@hotmail.com"/>
-    <hyperlink ref="F117" r:id="rId33" display="jeramiahmatsler@suumail.com"/>
-    <hyperlink ref="F116" r:id="rId34" display="tarajones007@gmail.com"/>
-    <hyperlink ref="F115" r:id="rId35" display="lise102589@yahoo.com"/>
-    <hyperlink ref="F114" r:id="rId36" display="berriekate@gmail.com"/>
-    <hyperlink ref="F112" r:id="rId37" display="patriciameredith@suu.edu"/>
-    <hyperlink ref="F111" r:id="rId38" display="randomspaghetti@gmail.com"/>
-    <hyperlink ref="F110" r:id="rId39" display="asa_roberts88@hotmail.com"/>
-    <hyperlink ref="F109" r:id="rId40" display="tobiasanderson23@gmail.com"/>
-    <hyperlink ref="F107" r:id="rId41" display="kylegoodwin@suumail.net"/>
-    <hyperlink ref="F106" r:id="rId42" display="benbakerbooks@gmail.com"/>
-    <hyperlink ref="F105" r:id="rId43" display="mad_about_stitching@yahoo.com"/>
-    <hyperlink ref="F104" r:id="rId44" display="courtbradley3@gmail.com"/>
-    <hyperlink ref="F103" r:id="rId45" display="jessismith@gmail.com"/>
-    <hyperlink ref="F102" r:id="rId46" display="maryharris@suumail.net"/>
-    <hyperlink ref="F101" r:id="rId47" display="yu@suu.edu"/>
-    <hyperlink ref="F100" r:id="rId48" display="maryfulton@suumail.net"/>
-    <hyperlink ref="F99" r:id="rId49" display="elbethanderson90@gmail.com"/>
-    <hyperlink ref="F98" r:id="rId50" display="logan@cred3.me"/>
-    <hyperlink ref="F97" r:id="rId51" display="akparker1814@gmail.com"/>
-    <hyperlink ref="F96" r:id="rId52" display="akparker1814@gmail.com"/>
-    <hyperlink ref="F95" r:id="rId53" display="tyler.erickson20@att.net"/>
-    <hyperlink ref="F94" r:id="rId54" display="brucegsmalley@gmail.com"/>
-    <hyperlink ref="F93" r:id="rId55" display="iain.dalton@gmail.com"/>
-    <hyperlink ref="F92" r:id="rId56" display="rsaunders@suu.edu"/>
-    <hyperlink ref="F91" r:id="rId57" display="ryanbailey10@gmail.com"/>
-    <hyperlink ref="F90" r:id="rId58" display="jacob.kirkham.lee@gmail.com"/>
-    <hyperlink ref="F89" r:id="rId59" display="yihuanxi1006@gmail.com"/>
-    <hyperlink ref="F88" r:id="rId60" display="cherryl0209@gmail.com"/>
-    <hyperlink ref="F87" r:id="rId61" display="meneses.dylan@yahoo.com"/>
-    <hyperlink ref="F86" r:id="rId62" display="allyjane1@hotmail.com"/>
-    <hyperlink ref="F85" r:id="rId63" display="jasonaiken@hotmail.com"/>
-    <hyperlink ref="F84" r:id="rId64" display="rengillo@gmail.com"/>
-    <hyperlink ref="F83" r:id="rId65" display="isabella.abelsuarez@gmail.com"/>
-    <hyperlink ref="F82" r:id="rId66" display="greendayrae@yahoo.com"/>
-    <hyperlink ref="F81" r:id="rId67" display="audrey@eldredge.org"/>
-    <hyperlink ref="F80" r:id="rId68" display="livealoha2014.h@gmail.com"/>
-    <hyperlink ref="F79" r:id="rId69" display="denisebeckham@suumail.net"/>
-    <hyperlink ref="F78" r:id="rId70" display="pisaturo@alum.mit.edu"/>
-    <hyperlink ref="F77" r:id="rId71" display="dyalnkeiser@suumail.net"/>
-    <hyperlink ref="F76" r:id="rId72" display="iancarr.iam@gmail.com"/>
-    <hyperlink ref="F75" r:id="rId73" display="mad03dog@msn.com"/>
-    <hyperlink ref="F74" r:id="rId74" display="odriscoll@suu.edu"/>
-    <hyperlink ref="F73" r:id="rId75" display="saxophilia@centrylink.net"/>
-    <hyperlink ref="F72" r:id="rId76" display="jennyfernielson@gmail.com"/>
-    <hyperlink ref="F71" r:id="rId77" display="tereee11@gmail.com"/>
-    <hyperlink ref="F70" r:id="rId78" display="arronpallesen@suu.edu"/>
-    <hyperlink ref="F69" r:id="rId79" display="maryfulton@suumail.net"/>
-    <hyperlink ref="F68" r:id="rId80" display="tarajones007@gmail.com"/>
-    <hyperlink ref="F67" r:id="rId81" display="awazzy.5896@gmail.com"/>
-    <hyperlink ref="F66" r:id="rId82" display="hunter.fautin@hotmail.com"/>
-    <hyperlink ref="F65" r:id="rId83" display="chevygirl13@hotmail.com"/>
-    <hyperlink ref="F64" r:id="rId84" display="braddrobison11@gmail.com"/>
-    <hyperlink ref="F63" r:id="rId85" display="cbrunsvik@gmail.com"/>
-    <hyperlink ref="F62" r:id="rId86" display="jordanwebb@gmail.com"/>
-    <hyperlink ref="F61" r:id="rId87" display="lauralywilcox@gmail.com"/>
-    <hyperlink ref="F60" r:id="rId88" display="stapley04@gmail.com"/>
-    <hyperlink ref="F58" r:id="rId89" display="tianamchambers@gmail.com"/>
-    <hyperlink ref="F57" r:id="rId90" display="monicabowcutt@gmail.com"/>
-    <hyperlink ref="F56" r:id="rId91" display="kelstolb5@gmail.com"/>
-    <hyperlink ref="F55" r:id="rId92" display="angus.j.macfarlane@gmail.com"/>
-    <hyperlink ref="F54" r:id="rId93" display="rakul_1992@hotmail.com"/>
-    <hyperlink ref="F53" r:id="rId94" display="paydon.newman@gmail.com"/>
-    <hyperlink ref="F51" r:id="rId95" display="cedric.bedier@hotmail.fr"/>
-    <hyperlink ref="F50" r:id="rId96" display="mickhami10@msn.com"/>
-    <hyperlink ref="F48" r:id="rId97" display="lucas@mtaonline.net"/>
-    <hyperlink ref="F47" r:id="rId98" display="bry.cheyenne@gmail.com"/>
-    <hyperlink ref="F46" r:id="rId99" display="alyssacbrown.15@gmail.com"/>
-    <hyperlink ref="F45" r:id="rId100" display="matthewdavis1@suumail.net"/>
-    <hyperlink ref="F44" r:id="rId101" display="ahmed_suu3@gmail.com"/>
-    <hyperlink ref="F42" r:id="rId102" display="briannadavis@suumail.net"/>
-    <hyperlink ref="F41" r:id="rId103" display="pobs_11@yahoo.com"/>
-    <hyperlink ref="F40" r:id="rId104" display="donaldo82@yahoo.com"/>
-    <hyperlink ref="F39" r:id="rId105" display="seh2122546@maricopa.edu"/>
-    <hyperlink ref="F38" r:id="rId106" display="theshinelady@gmaill.com"/>
-    <hyperlink ref="F37" r:id="rId107" display="hussam-ef92@hotmail.com"/>
-    <hyperlink ref="F36" r:id="rId108" display="matthewsj@suu.edu"/>
-    <hyperlink ref="F35" r:id="rId109" display="hussam_ef92@hotmail.com"/>
-    <hyperlink ref="F34" r:id="rId110" display="kirstenmar@comcast.net"/>
-    <hyperlink ref="F33" r:id="rId111" display="saige.axelson@suusuccess.org"/>
-    <hyperlink ref="F32" r:id="rId112" display="grgorydonaldson91@yahoo.com"/>
-    <hyperlink ref="F31" r:id="rId113" display="jared21308@gmail.com"/>
-    <hyperlink ref="F30" r:id="rId114" display="justindouglas@suumail.net"/>
-    <hyperlink ref="F29" r:id="rId115" display="georgeluvs2run@hotmail.com"/>
-    <hyperlink ref="F28" r:id="rId116" display="kayla.wiggin@gmail.com"/>
-    <hyperlink ref="F27" r:id="rId117" display="sarahkbooks@gmail.com"/>
-    <hyperlink ref="F26" r:id="rId118" display="kerjmart@gmail.com"/>
-    <hyperlink ref="F25" r:id="rId119" display="kimbronsonweaver@gmail.com"/>
-    <hyperlink ref="F24" r:id="rId120" display="dylankeiser@suumail.net"/>
-    <hyperlink ref="F22" r:id="rId121" display="mariahloveless@gmail.com"/>
-    <hyperlink ref="F21" r:id="rId122" display="literaturegeek13@gmail.com"/>
-    <hyperlink ref="F20" r:id="rId123" display="rachelcable96@gmail.com"/>
-    <hyperlink ref="F19" r:id="rId124" display="jtyleredgel@gmail.com"/>
-    <hyperlink ref="F18" r:id="rId125" display="831lopez@gmail.com"/>
-    <hyperlink ref="F17" r:id="rId126" display="jaiteepitts@suumail.com"/>
-    <hyperlink ref="F16" r:id="rId127" display="brycehanson51@hotmail.com"/>
-    <hyperlink ref="F15" r:id="rId128" display="pfugal@yahoo.com"/>
-    <hyperlink ref="F14" r:id="rId129" display="nicolehyden@suumail.net"/>
-    <hyperlink ref="F13" r:id="rId130" display="stephanieannegonzalez2@gmail.com"/>
-    <hyperlink ref="F12" r:id="rId131" display="sierra.lynn.rankin@gmail.com"/>
-    <hyperlink ref="F11" r:id="rId132" display="julie210294@hotmail.fr"/>
-    <hyperlink ref="F9" r:id="rId133" display="jnozzy9@yahoo.com"/>
-    <hyperlink ref="F8" r:id="rId134" display="srbsmg@gmail.com"/>
-    <hyperlink ref="F7" r:id="rId135" display="victoria.ms420@gmail.com"/>
-    <hyperlink ref="F6" r:id="rId136" display="taitertot05@gmail.com"/>
-    <hyperlink ref="F5" r:id="rId137" display="sunshine98112@hotmail.com"/>
-    <hyperlink ref="F4" r:id="rId138" display="karlcranney@yahoo.com"/>
-    <hyperlink ref="F3" r:id="rId139" display="ashleygray2@suumail.net"/>
-    <hyperlink ref="F2" r:id="rId140" display="ashleygray2@suumail.net"/>
+    <hyperlink ref="F154" r:id="rId2" display="pixiedustpainter@gmail.com"/>
+    <hyperlink ref="F153" r:id="rId3" display="rollins_56@outlook.com"/>
+    <hyperlink ref="F151" r:id="rId4" display="yamanemisty@gmail.com"/>
+    <hyperlink ref="F150" r:id="rId5" display="kapcsosshawn@gmail.com"/>
+    <hyperlink ref="F149" r:id="rId6" display="garycrowton@suu.edu"/>
+    <hyperlink ref="F148" r:id="rId7" display="christopheranderson8@gmail.com"/>
+    <hyperlink ref="F147" r:id="rId8" display="katie_knorr_01@outlook.com"/>
+    <hyperlink ref="F146" r:id="rId9" display="Rachelcable96@gmail.com"/>
+    <hyperlink ref="F145" r:id="rId10" display="tylerdavidsmith95@gmail.com"/>
+    <hyperlink ref="F144" r:id="rId11" display="scconder@gmail.com"/>
+    <hyperlink ref="F142" r:id="rId12" display="LLL_erika@yahoo.com"/>
+    <hyperlink ref="F141" r:id="rId13" display="robbiesweeten@gmail.com"/>
+    <hyperlink ref="F140" r:id="rId14" display="rudiaheddings@suu.edu"/>
+    <hyperlink ref="F139" r:id="rId15" display="austinbruckner@suumail.net"/>
+    <hyperlink ref="F138" r:id="rId16" display="diegogirl88@yahoo.com"/>
+    <hyperlink ref="F137" r:id="rId17" display="caitlin.g.hanson@gmail.com"/>
+    <hyperlink ref="F135" r:id="rId18" display="drdev4@yahoo.com"/>
+    <hyperlink ref="F133" r:id="rId19" display="knordby.22@gmail.com"/>
+    <hyperlink ref="F132" r:id="rId20" display="tobiasanderson23@gmail.com"/>
+    <hyperlink ref="F131" r:id="rId21" display="mariahloveless@gmail.com"/>
+    <hyperlink ref="F130" r:id="rId22" display="brnin8or@gmail.com"/>
+    <hyperlink ref="F129" r:id="rId23" display="nickatkin516@gmail.com"/>
+    <hyperlink ref="F128" r:id="rId24" display="zenovia_20@yahoo.com"/>
+    <hyperlink ref="F127" r:id="rId25" display="mkleighann@gmail.com"/>
+    <hyperlink ref="F126" r:id="rId26" display="austin.cozzens@gmail.com"/>
+    <hyperlink ref="F124" r:id="rId27" display="jeramiahmatsler@suumail.net"/>
+    <hyperlink ref="F123" r:id="rId28" display="jackiejvarner@gmail.com"/>
+    <hyperlink ref="F122" r:id="rId29" display="jackiejvarner@gmail.com"/>
+    <hyperlink ref="F121" r:id="rId30" display="sfallentine@gmail.com"/>
+    <hyperlink ref="F120" r:id="rId31" display="angie.lambeth@ironmail.org"/>
+    <hyperlink ref="F119" r:id="rId32" display="ahirtushar94@gmail.com"/>
+    <hyperlink ref="F118" r:id="rId33" display="tehhoods@hotmail.com"/>
+    <hyperlink ref="F117" r:id="rId34" display="jeramiahmatsler@suumail.com"/>
+    <hyperlink ref="F116" r:id="rId35" display="tarajones007@gmail.com"/>
+    <hyperlink ref="F115" r:id="rId36" display="lise102589@yahoo.com"/>
+    <hyperlink ref="F114" r:id="rId37" display="berriekate@gmail.com"/>
+    <hyperlink ref="F112" r:id="rId38" display="patriciameredith@suu.edu"/>
+    <hyperlink ref="F111" r:id="rId39" display="randomspaghetti@gmail.com"/>
+    <hyperlink ref="F110" r:id="rId40" display="asa_roberts88@hotmail.com"/>
+    <hyperlink ref="F109" r:id="rId41" display="tobiasanderson23@gmail.com"/>
+    <hyperlink ref="F107" r:id="rId42" display="kylegoodwin@suumail.net"/>
+    <hyperlink ref="F106" r:id="rId43" display="benbakerbooks@gmail.com"/>
+    <hyperlink ref="F105" r:id="rId44" display="mad_about_stitching@yahoo.com"/>
+    <hyperlink ref="F104" r:id="rId45" display="courtbradley3@gmail.com"/>
+    <hyperlink ref="F103" r:id="rId46" display="jessismith@gmail.com"/>
+    <hyperlink ref="F102" r:id="rId47" display="maryharris@suumail.net"/>
+    <hyperlink ref="F101" r:id="rId48" display="yu@suu.edu"/>
+    <hyperlink ref="F100" r:id="rId49" display="maryfulton@suumail.net"/>
+    <hyperlink ref="F99" r:id="rId50" display="elbethanderson90@gmail.com"/>
+    <hyperlink ref="F98" r:id="rId51" display="logan@cred3.me"/>
+    <hyperlink ref="F97" r:id="rId52" display="akparker1814@gmail.com"/>
+    <hyperlink ref="F96" r:id="rId53" display="akparker1814@gmail.com"/>
+    <hyperlink ref="F95" r:id="rId54" display="tyler.erickson20@att.net"/>
+    <hyperlink ref="F94" r:id="rId55" display="brucegsmalley@gmail.com"/>
+    <hyperlink ref="F93" r:id="rId56" display="iain.dalton@gmail.com"/>
+    <hyperlink ref="F92" r:id="rId57" display="rsaunders@suu.edu"/>
+    <hyperlink ref="F91" r:id="rId58" display="ryanbailey10@gmail.com"/>
+    <hyperlink ref="F90" r:id="rId59" display="jacob.kirkham.lee@gmail.com"/>
+    <hyperlink ref="F89" r:id="rId60" display="yihuanxi1006@gmail.com"/>
+    <hyperlink ref="F88" r:id="rId61" display="cherryl0209@gmail.com"/>
+    <hyperlink ref="F87" r:id="rId62" display="meneses.dylan@yahoo.com"/>
+    <hyperlink ref="F86" r:id="rId63" display="allyjane1@hotmail.com"/>
+    <hyperlink ref="F85" r:id="rId64" display="jasonaiken@hotmail.com"/>
+    <hyperlink ref="F84" r:id="rId65" display="rengillo@gmail.com"/>
+    <hyperlink ref="F83" r:id="rId66" display="isabella.abelsuarez@gmail.com"/>
+    <hyperlink ref="F82" r:id="rId67" display="greendayrae@yahoo.com"/>
+    <hyperlink ref="F81" r:id="rId68" display="audrey@eldredge.org"/>
+    <hyperlink ref="F80" r:id="rId69" display="livealoha2014.h@gmail.com"/>
+    <hyperlink ref="F79" r:id="rId70" display="denisebeckham@suumail.net"/>
+    <hyperlink ref="F78" r:id="rId71" display="pisaturo@alum.mit.edu"/>
+    <hyperlink ref="F77" r:id="rId72" display="dyalnkeiser@suumail.net"/>
+    <hyperlink ref="F76" r:id="rId73" display="iancarr.iam@gmail.com"/>
+    <hyperlink ref="F75" r:id="rId74" display="mad03dog@msn.com"/>
+    <hyperlink ref="F74" r:id="rId75" display="odriscoll@suu.edu"/>
+    <hyperlink ref="F73" r:id="rId76" display="saxophilia@centrylink.net"/>
+    <hyperlink ref="F72" r:id="rId77" display="jennyfernielson@gmail.com"/>
+    <hyperlink ref="F71" r:id="rId78" display="tereee11@gmail.com"/>
+    <hyperlink ref="F70" r:id="rId79" display="arronpallesen@suu.edu"/>
+    <hyperlink ref="F69" r:id="rId80" display="maryfulton@suumail.net"/>
+    <hyperlink ref="F68" r:id="rId81" display="tarajones007@gmail.com"/>
+    <hyperlink ref="F67" r:id="rId82" display="awazzy.5896@gmail.com"/>
+    <hyperlink ref="F66" r:id="rId83" display="hunter.fautin@hotmail.com"/>
+    <hyperlink ref="F65" r:id="rId84" display="chevygirl13@hotmail.com"/>
+    <hyperlink ref="F64" r:id="rId85" display="braddrobison11@gmail.com"/>
+    <hyperlink ref="F63" r:id="rId86" display="cbrunsvik@gmail.com"/>
+    <hyperlink ref="F62" r:id="rId87" display="jordanwebb@gmail.com"/>
+    <hyperlink ref="F61" r:id="rId88" display="lauralywilcox@gmail.com"/>
+    <hyperlink ref="F60" r:id="rId89" display="stapley04@gmail.com"/>
+    <hyperlink ref="F58" r:id="rId90" display="tianamchambers@gmail.com"/>
+    <hyperlink ref="F57" r:id="rId91" display="monicabowcutt@gmail.com"/>
+    <hyperlink ref="F56" r:id="rId92" display="kelstolb5@gmail.com"/>
+    <hyperlink ref="F55" r:id="rId93" display="angus.j.macfarlane@gmail.com"/>
+    <hyperlink ref="F54" r:id="rId94" display="rakul_1992@hotmail.com"/>
+    <hyperlink ref="F53" r:id="rId95" display="paydon.newman@gmail.com"/>
+    <hyperlink ref="F51" r:id="rId96" display="cedric.bedier@hotmail.fr"/>
+    <hyperlink ref="F50" r:id="rId97" display="mickhami10@msn.com"/>
+    <hyperlink ref="F48" r:id="rId98" display="lucas@mtaonline.net"/>
+    <hyperlink ref="F47" r:id="rId99" display="bry.cheyenne@gmail.com"/>
+    <hyperlink ref="F46" r:id="rId100" display="alyssacbrown.15@gmail.com"/>
+    <hyperlink ref="F45" r:id="rId101" display="matthewdavis1@suumail.net"/>
+    <hyperlink ref="F44" r:id="rId102" display="ahmed_suu3@gmail.com"/>
+    <hyperlink ref="F42" r:id="rId103" display="briannadavis@suumail.net"/>
+    <hyperlink ref="F41" r:id="rId104" display="pobs_11@yahoo.com"/>
+    <hyperlink ref="F40" r:id="rId105" display="donaldo82@yahoo.com"/>
+    <hyperlink ref="F39" r:id="rId106" display="seh2122546@maricopa.edu"/>
+    <hyperlink ref="F38" r:id="rId107" display="theshinelady@gmaill.com"/>
+    <hyperlink ref="F37" r:id="rId108" display="hussam-ef92@hotmail.com"/>
+    <hyperlink ref="F36" r:id="rId109" display="matthewsj@suu.edu"/>
+    <hyperlink ref="F35" r:id="rId110" display="hussam_ef92@hotmail.com"/>
+    <hyperlink ref="F34" r:id="rId111" display="kirstenmar@comcast.net"/>
+    <hyperlink ref="F33" r:id="rId112" display="saige.axelson@suusuccess.org"/>
+    <hyperlink ref="F32" r:id="rId113" display="grgorydonaldson91@yahoo.com"/>
+    <hyperlink ref="F31" r:id="rId114" display="jared21308@gmail.com"/>
+    <hyperlink ref="F30" r:id="rId115" display="justindouglas@suumail.net"/>
+    <hyperlink ref="F29" r:id="rId116" display="georgeluvs2run@hotmail.com"/>
+    <hyperlink ref="F28" r:id="rId117" display="kayla.wiggin@gmail.com"/>
+    <hyperlink ref="F27" r:id="rId118" display="sarahkbooks@gmail.com"/>
+    <hyperlink ref="F26" r:id="rId119" display="kerjmart@gmail.com"/>
+    <hyperlink ref="F25" r:id="rId120" display="kimbronsonweaver@gmail.com"/>
+    <hyperlink ref="F24" r:id="rId121" display="dylankeiser@suumail.net"/>
+    <hyperlink ref="F22" r:id="rId122" display="mariahloveless@gmail.com"/>
+    <hyperlink ref="F21" r:id="rId123" display="literaturegeek13@gmail.com"/>
+    <hyperlink ref="F20" r:id="rId124" display="rachelcable96@gmail.com"/>
+    <hyperlink ref="F19" r:id="rId125" display="jtyleredgel@gmail.com"/>
+    <hyperlink ref="F18" r:id="rId126" display="831lopez@gmail.com"/>
+    <hyperlink ref="F17" r:id="rId127" display="jaiteepitts@suumail.com"/>
+    <hyperlink ref="F16" r:id="rId128" display="brycehanson51@hotmail.com"/>
+    <hyperlink ref="F15" r:id="rId129" display="pfugal@yahoo.com"/>
+    <hyperlink ref="F14" r:id="rId130" display="nicolehyden@suumail.net"/>
+    <hyperlink ref="F13" r:id="rId131" display="stephanieannegonzalez2@gmail.com"/>
+    <hyperlink ref="F12" r:id="rId132" display="sierra.lynn.rankin@gmail.com"/>
+    <hyperlink ref="F11" r:id="rId133" display="julie210294@hotmail.fr"/>
+    <hyperlink ref="F9" r:id="rId134" display="jnozzy9@yahoo.com"/>
+    <hyperlink ref="F8" r:id="rId135" display="srbsmg@gmail.com"/>
+    <hyperlink ref="F7" r:id="rId136" display="victoria.ms420@gmail.com"/>
+    <hyperlink ref="F6" r:id="rId137" display="taitertot05@gmail.com"/>
+    <hyperlink ref="F5" r:id="rId138" display="sunshine98112@hotmail.com"/>
+    <hyperlink ref="F4" r:id="rId139" display="karlcranney@yahoo.com"/>
+    <hyperlink ref="F3" r:id="rId140" display="ashleygray2@suumail.net"/>
+    <hyperlink ref="F2" r:id="rId141" display="ashleygray2@suumail.net"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId141"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId142"/>
 </worksheet>
 </file>
 
@@ -6451,7 +6480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -8008,6 +8037,12 @@
   <sortState ref="A2:E120">
     <sortCondition ref="A2:A120"/>
   </sortState>
+  <customSheetViews>
+    <customSheetView guid="{765DC815-3A46-468E-A0A4-A4CD88DA39AB}" topLeftCell="A97">
+      <selection activeCell="B8" sqref="B8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>